--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -3108,7 +3108,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -1527,44 +1527,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.70703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.09765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -634,7 +634,7 @@
 available-as-claim-diagnosis: 保険病名として反映すべきものを示す。
 unavailable-as-claim-diagnosis: 保険病名として反映すべきでないものを示す。
 上記が入力される。
-＊US Coreに倣い、problem-list-item | encounter-diagnosis | health-concernとしている。カーディナリティを1..1としているため、このいずれかが入力されることになるため要検討です。</t>
+＊US Coreに倣い、problem-list-item | encounter-diagnosis | health-concernとしている。カーディナリティを1..1としているため、このいずれかが入力されることになるため検討を必要とする。</t>
   </si>
   <si>
     <t>extensible</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -847,7 +847,7 @@
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".
-これは通常、イベントが発生したエンカウンターですが、場合によっては病状状態は、エンカウンターが完了する前または後に開始されているる場合がある。それでもエンカウンターのコンテキストに関連付けられる。このレコードは、この特定のレコードが関連付けられているエンカウンターを示す。状態に関する進行中/新しい情報を反映した「新しい」診断の場合には、それまでに存在していた状態がはじめて「知られた」最初のエンカウンターとは異なる可能性がある。
+これは通常、イベントが発生したエンカウンターだが、場合によっては病状状態は、エンカウンターが完了する前または後に開始されているる場合がある。それでもエンカウンターのコンテキストに関連付けられる。このレコードは、この特定のレコードが関連付けられているエンカウンターを示す。状態に関する進行中/新しい情報を反映した「新しい」診断の場合には、それまでに存在していた状態がはじめて「知られた」最初のエンカウンターとは異なる可能性がある。
 【JP仕様】
 入院外来の区別や所在場所、担当診療科の情報に使用する。付加的な情報であり、1...1には制約しない。</t>
   </si>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -513,7 +513,6 @@
   </si>
   <si>
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-【JP-CORE】
 codeとしてhttp://terminology.hl7.org/CodeSystem/condition-clinicalでは
 Lv0 active: 状態による症状が現在継続している、または状態を裏付ける所見などが存在していることを指す。
 Lv1 recurrence: 過去に一回解消した問題が再発していることを指す。
@@ -521,7 +520,7 @@
 Lv0 inactive: 状態による症状が現在存在していない、または状態を裏付ける所見などが存在していないことを指す。
 Lv1 remission: 状態による症状が現在存在していないが、再発のリスクを有している場合を指す。
 Lv1 resolved: 状態による症状が現在存在していおらず、再発のリスクを考慮する必要がない場合を指す。
-上記が入力されるが、JP-COREでは保険病名の表現を可能とするため、上記情報に加え下記を表現可能とするか否か検討のひつようがある。別個にclinicaloutcomeを作成する検討の必要性がある。
+上記が入力されるが、JP Coreでは保険病名の表現を可能とするため、上記情報に加え下記を表現可能とするか否か検討のひつようがある。別個にclinicaloutcomeを作成する検討の必要性がある。
 退院時転帰
 1 =資源病名が治癒したと判断される場合
 2 =資源病名が軽快したと判断される場合
@@ -574,7 +573,6 @@
   <si>
     <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-【JP-CORE】
 codeとしてhttp://terminology.hl7.org/CodeSystem/condition-ver-statusを用い、具体的には
 Lv0 unconfirmed: 該当する状態の存在を確定とは言い切れないことを示す。
 Lv1 provisional: 該当する状態の存在は暫定的であることを示す。

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -265,8 +265,8 @@
 患者の健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)を表現する。</t>
   </si>
   <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>con-3:条件.ClinicalStatusが誤って入力されておらず、カテゴリが問題リスト項目である場合、clinicalStatusが存在するものとします / Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:条件が和らげられている場合、臨床ステータスは不活性、解決、または寛解のいずれかでなければなりません / If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:condition.clinicalstatusは、検証状態が侵食に入力されている場合、存在しないでください / Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -294,13 +294,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -313,16 +313,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -333,13 +333,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -352,19 +352,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,13 +384,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -436,33 +436,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -475,7 +476,7 @@
 </t>
   </si>
   <si>
-    <t>External Ids for this condition</t>
+    <t>この条件の外部ID / External Ids for this condition</t>
   </si>
   <si>
     <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.
@@ -486,7 +487,7 @@
 これはビジネス識別子であり、リソース識別子ではない。全インスタンスを通して識別子は単一インスタンスを指し示すことがベストである。しかし、異なるリソースタイプの複数のリソースインスタンスに同じ識別子を割り当てることも稀にはある。例えば、重複するPatientリソースインスタンスとPersonリソースインスタンスは同じソーシャルセキュリティー番号を共有することなどである。</t>
   </si>
   <si>
-    <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>さまざまな参加システムで知られている状態と、サーバー全体で一貫性のある方法で条件を識別できるようにします。 / Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -505,7 +506,7 @@
 </t>
   </si>
   <si>
-    <t>active | recurrence | relapse | inactive | remission | resolved</t>
+    <t>アクティブ|再発|再発|非アクティブ|寛解|解決しました / active | recurrence | relapse | inactive | remission | resolved</t>
   </si>
   <si>
     <t>The clinical status of the condition.
@@ -535,7 +536,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>The clinical status of the condition or diagnosis.</t>
+    <t>状態または診断の臨床状態。 / The clinical status of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
@@ -564,7 +565,7 @@
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
+    <t>未確認|仮|微分|確認|反論|エラーに入った / unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
   </si>
   <si>
     <t>The verification status to support the clinical status of the condition.
@@ -583,7 +584,7 @@
 上記が入力される。</t>
   </si>
   <si>
-    <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+    <t>状態または診断の臨床状態をサポートまたは拒否する検証状況。 / The verification status to support or decline the clinical status of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
@@ -638,7 +639,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>A category assigned to the condition.</t>
+    <t>条件に割り当てられたカテゴリ。 / A category assigned to the condition.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-category</t>
@@ -675,7 +676,7 @@
 code:255604002 Display:Mild</t>
   </si>
   <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
+    <t>臨床医によって評価された状態の重症度の主観的な評価。 / A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
@@ -718,13 +719,13 @@
 sct:3219008  Disease type AND/OR category unknown</t>
   </si>
   <si>
-    <t>0..1 to account for primarily narrative only resources.</t>
+    <t>0..1主に叙述(Narative)のみのリソースを説明する。 / 0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Identification of the condition or diagnosis.</t>
+    <t>状態または診断の識別。 / Identification of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -776,7 +777,7 @@
 code:955009 Display:Bronchus</t>
   </si>
   <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>解剖学的場所を説明するコード。左右性が含まれる場合があります。 / Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -815,7 +816,7 @@
 必須(Cardinality 1...1)とする。</t>
   </si>
   <si>
-    <t>Group is typically used for veterinary or public health use cases.</t>
+    <t>グループは通常、獣医または公衆衛生のユースケースに使用されます。 / Group is typically used for veterinary or public health use cases.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1004,8 +1005,8 @@
 病状の臨床病期またはグレード。正式な重症度評価が含まれる場合がある。</t>
   </si>
   <si>
-    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>con-1:ステージには概要または評価があります / Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
+ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -1014,10 +1015,10 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -1029,7 +1030,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1042,10 +1043,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1055,13 +1057,13 @@
     <t>Condition.stage.summary</t>
   </si>
   <si>
-    <t>Simple summary (disease specific)</t>
-  </si>
-  <si>
-    <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
-  </si>
-  <si>
-    <t>Codes describing condition stages (e.g. Cancer stages).</t>
+    <t>簡単な要約（病気固有） / Simple summary (disease specific)</t>
+  </si>
+  <si>
+    <t>「ステージ3」などのステージの簡単な要約。段階の決定は疾患固有です。 / A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
+  </si>
+  <si>
+    <t>状態段階を説明するコード（癌段階など）。 / Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
@@ -1081,10 +1083,10 @@
 </t>
   </si>
   <si>
-    <t>Formal record of assessment</t>
-  </si>
-  <si>
-    <t>Reference to a formal record of the evidence on which the staging assessment is based.</t>
+    <t>評価の正式な記録 / Formal record of assessment</t>
+  </si>
+  <si>
+    <t>ステージング評価が基づいている証拠の正式な記録への言及。 / Reference to a formal record of the evidence on which the staging assessment is based.</t>
   </si>
   <si>
     <t>.self</t>
@@ -1093,13 +1095,13 @@
     <t>Condition.stage.type</t>
   </si>
   <si>
-    <t>Kind of staging</t>
-  </si>
-  <si>
-    <t>The kind of staging, such as pathological or clinical staging.</t>
-  </si>
-  <si>
-    <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
+    <t>一種のステージング / Kind of staging</t>
+  </si>
+  <si>
+    <t>病理学的または臨床的病期分類などのステージングの種類。 / The kind of staging, such as pathological or clinical staging.</t>
+  </si>
+  <si>
+    <t>条件のステージングの種類を説明するコード（臨床的または病理学的）。 / Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
@@ -1126,8 +1128,8 @@
 code:1735007 Display:Thrill</t>
   </si>
   <si>
-    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>con-2:証拠にはコードまたは詳細があります / evidence SHALL have code or details {code.exists() or detail.exists()}
+ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1145,13 +1147,13 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t>Manifestation/symptom</t>
-  </si>
-  <si>
-    <t>A manifestation or symptom that led to the recording of this condition.</t>
-  </si>
-  <si>
-    <t>Codes that describe the manifestation or symptoms of a condition.</t>
+    <t>症状/症状 / Manifestation/symptom</t>
+  </si>
+  <si>
+    <t>この状態の記録につながった症状または症状。 / A manifestation or symptom that led to the recording of this condition.</t>
+  </si>
+  <si>
+    <t>状態の症状または症状を説明するコード。 / Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
@@ -1177,10 +1179,10 @@
 </t>
   </si>
   <si>
-    <t>Supporting information found elsewhere</t>
-  </si>
-  <si>
-    <t>Links to other relevant information, including pathology reports.</t>
+    <t>他の場所にあるサポート情報 / Supporting information found elsewhere</t>
+  </si>
+  <si>
+    <t>病理学レポートを含む他の関連情報へのリンク。 / Links to other relevant information, including pathology reports.</t>
   </si>
   <si>
     <t>Condition.note</t>
@@ -1534,7 +1536,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.8125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1547,7 +1549,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="118.92578125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -265,8 +265,8 @@
 患者の健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)を表現する。</t>
   </si>
   <si>
-    <t>con-3:条件.ClinicalStatusが誤って入力されておらず、カテゴリが問題リスト項目である場合、clinicalStatusが存在するものとします / Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:条件が和らげられている場合、臨床ステータスは不活性、解決、または寛解のいずれかでなければなりません / If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:condition.clinicalstatusは、検証状態が侵食に入力されている場合、存在しないでください / Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -294,13 +294,13 @@
 </t>
   </si>
   <si>
-    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -313,16 +313,16 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ / Metadata about the resource</t>
-  </si>
-  <si>
-    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -333,13 +333,13 @@
 </t>
   </si>
   <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -352,19 +352,19 @@
 </t>
   </si>
   <si>
-    <t>リソースコンテンツの言語 / Language of the resource content</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>人間の言語。 / A human language.</t>
+    <t>A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,13 +384,13 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>インラインリソースが含まれています / Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -436,34 +436,33 @@
 </t>
   </si>
   <si>
-    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -476,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>この条件の外部ID / External Ids for this condition</t>
+    <t>External Ids for this condition</t>
   </si>
   <si>
     <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.
@@ -487,7 +486,7 @@
 これはビジネス識別子であり、リソース識別子ではない。全インスタンスを通して識別子は単一インスタンスを指し示すことがベストである。しかし、異なるリソースタイプの複数のリソースインスタンスに同じ識別子を割り当てることも稀にはある。例えば、重複するPatientリソースインスタンスとPersonリソースインスタンスは同じソーシャルセキュリティー番号を共有することなどである。</t>
   </si>
   <si>
-    <t>さまざまな参加システムで知られている状態と、サーバー全体で一貫性のある方法で条件を識別できるようにします。 / Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -506,7 +505,7 @@
 </t>
   </si>
   <si>
-    <t>アクティブ|再発|再発|非アクティブ|寛解|解決しました / active | recurrence | relapse | inactive | remission | resolved</t>
+    <t>active | recurrence | relapse | inactive | remission | resolved</t>
   </si>
   <si>
     <t>The clinical status of the condition.
@@ -536,7 +535,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>状態または診断の臨床状態。 / The clinical status of the condition or diagnosis.</t>
+    <t>The clinical status of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
@@ -565,7 +564,7 @@
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>未確認|仮|微分|確認|反論|エラーに入った / unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
+    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
   </si>
   <si>
     <t>The verification status to support the clinical status of the condition.
@@ -584,7 +583,7 @@
 上記が入力される。</t>
   </si>
   <si>
-    <t>状態または診断の臨床状態をサポートまたは拒否する検証状況。 / The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+    <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
@@ -639,7 +638,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>条件に割り当てられたカテゴリ。 / A category assigned to the condition.</t>
+    <t>A category assigned to the condition.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-category</t>
@@ -676,7 +675,7 @@
 code:255604002 Display:Mild</t>
   </si>
   <si>
-    <t>臨床医によって評価された状態の重症度の主観的な評価。 / A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
@@ -719,13 +718,13 @@
 sct:3219008  Disease type AND/OR category unknown</t>
   </si>
   <si>
-    <t>0..1主に叙述(Narative)のみのリソースを説明する。 / 0..1 to account for primarily narrative only resources.</t>
+    <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>状態または診断の識別。 / Identification of the condition or diagnosis.</t>
+    <t>Identification of the condition or diagnosis.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -777,7 +776,7 @@
 code:955009 Display:Bronchus</t>
   </si>
   <si>
-    <t>解剖学的場所を説明するコード。左右性が含まれる場合があります。 / Codes describing anatomical locations. May include laterality.</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -816,7 +815,7 @@
 必須(Cardinality 1...1)とする。</t>
   </si>
   <si>
-    <t>グループは通常、獣医または公衆衛生のユースケースに使用されます。 / Group is typically used for veterinary or public health use cases.</t>
+    <t>Group is typically used for veterinary or public health use cases.</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1005,8 +1004,8 @@
 病状の臨床病期またはグレード。正式な重症度評価が含まれる場合がある。</t>
   </si>
   <si>
-    <t>con-1:ステージには概要または評価があります / Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -1015,10 +1014,10 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -1030,7 +1029,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1043,11 +1042,10 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
-モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1057,13 +1055,13 @@
     <t>Condition.stage.summary</t>
   </si>
   <si>
-    <t>簡単な要約（病気固有） / Simple summary (disease specific)</t>
-  </si>
-  <si>
-    <t>「ステージ3」などのステージの簡単な要約。段階の決定は疾患固有です。 / A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
-  </si>
-  <si>
-    <t>状態段階を説明するコード（癌段階など）。 / Codes describing condition stages (e.g. Cancer stages).</t>
+    <t>Simple summary (disease specific)</t>
+  </si>
+  <si>
+    <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
+  </si>
+  <si>
+    <t>Codes describing condition stages (e.g. Cancer stages).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
@@ -1083,10 +1081,10 @@
 </t>
   </si>
   <si>
-    <t>評価の正式な記録 / Formal record of assessment</t>
-  </si>
-  <si>
-    <t>ステージング評価が基づいている証拠の正式な記録への言及。 / Reference to a formal record of the evidence on which the staging assessment is based.</t>
+    <t>Formal record of assessment</t>
+  </si>
+  <si>
+    <t>Reference to a formal record of the evidence on which the staging assessment is based.</t>
   </si>
   <si>
     <t>.self</t>
@@ -1095,13 +1093,13 @@
     <t>Condition.stage.type</t>
   </si>
   <si>
-    <t>一種のステージング / Kind of staging</t>
-  </si>
-  <si>
-    <t>病理学的または臨床的病期分類などのステージングの種類。 / The kind of staging, such as pathological or clinical staging.</t>
-  </si>
-  <si>
-    <t>条件のステージングの種類を説明するコード（臨床的または病理学的）。 / Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
+    <t>Kind of staging</t>
+  </si>
+  <si>
+    <t>The kind of staging, such as pathological or clinical staging.</t>
+  </si>
+  <si>
+    <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
@@ -1128,8 +1126,8 @@
 code:1735007 Display:Thrill</t>
   </si>
   <si>
-    <t>con-2:証拠にはコードまたは詳細があります / evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1147,13 +1145,13 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t>症状/症状 / Manifestation/symptom</t>
-  </si>
-  <si>
-    <t>この状態の記録につながった症状または症状。 / A manifestation or symptom that led to the recording of this condition.</t>
-  </si>
-  <si>
-    <t>状態の症状または症状を説明するコード。 / Codes that describe the manifestation or symptoms of a condition.</t>
+    <t>Manifestation/symptom</t>
+  </si>
+  <si>
+    <t>A manifestation or symptom that led to the recording of this condition.</t>
+  </si>
+  <si>
+    <t>Codes that describe the manifestation or symptoms of a condition.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
@@ -1179,10 +1177,10 @@
 </t>
   </si>
   <si>
-    <t>他の場所にあるサポート情報 / Supporting information found elsewhere</t>
-  </si>
-  <si>
-    <t>病理学レポートを含む他の関連情報へのリンク。 / Links to other relevant information, including pathology reports.</t>
+    <t>Supporting information found elsewhere</t>
+  </si>
+  <si>
+    <t>Links to other relevant information, including pathology reports.</t>
   </si>
   <si>
     <t>Condition.note</t>
@@ -1536,7 +1534,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="95.8125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1549,7 +1547,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="118.92578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="349">
   <si>
     <t>Property</t>
   </si>
@@ -675,10 +675,7 @@
 code:255604002 Display:Mild</t>
   </si>
   <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-severity</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ConditionSeverity_VS</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -1548,7 +1545,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.7109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3275,11 +3272,9 @@
       <c r="W15" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3315,32 +3310,32 @@
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>89</v>
@@ -3358,16 +3353,16 @@
         <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3392,14 +3387,14 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3431,27 +3426,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3477,13 +3472,13 @@
         <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3509,14 +3504,14 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3533,7 +3528,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3551,28 +3546,28 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3591,19 +3586,19 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -3652,7 +3647,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>89</v>
@@ -3667,19 +3662,19 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3687,7 +3682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3710,16 +3705,16 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3769,7 +3764,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -3784,19 +3779,19 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3804,7 +3799,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3827,16 +3822,16 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3886,7 +3881,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -3901,19 +3896,19 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -3921,7 +3916,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3944,16 +3939,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4003,7 +3998,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4012,7 +4007,7 @@
         <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>101</v>
@@ -4027,10 +4022,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4038,7 +4033,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4061,13 +4056,13 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4118,7 +4113,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4139,13 +4134,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4153,7 +4148,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4176,16 +4171,16 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4235,7 +4230,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4259,10 +4254,10 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4270,7 +4265,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4293,16 +4288,16 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4352,7 +4347,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4373,13 +4368,13 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4387,7 +4382,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4410,13 +4405,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4467,7 +4462,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4479,19 +4474,19 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4502,7 +4497,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4528,10 +4523,10 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4582,7 +4577,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4606,7 +4601,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4617,7 +4612,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4646,7 +4641,7 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
@@ -4699,7 +4694,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4723,7 +4718,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4734,11 +4729,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4760,10 +4755,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4818,7 +4813,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4853,7 +4848,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4879,10 +4874,10 @@
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4909,14 +4904,14 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4933,7 +4928,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -4942,7 +4937,7 @@
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
@@ -4951,13 +4946,13 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4968,7 +4963,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4991,13 +4986,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5048,7 +5043,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5057,7 +5052,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
@@ -5072,7 +5067,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5083,7 +5078,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5109,10 +5104,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5139,14 +5134,14 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5163,7 +5158,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5187,7 +5182,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5198,7 +5193,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5221,16 +5216,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5280,7 +5275,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5292,19 +5287,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5315,7 +5310,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5341,10 +5336,10 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5395,7 +5390,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5419,7 +5414,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5430,7 +5425,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5459,7 +5454,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -5512,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5536,7 +5531,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5547,11 +5542,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5573,10 +5568,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5631,7 +5626,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5666,7 +5661,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5692,10 +5687,10 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5722,14 +5717,14 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>333</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5746,7 +5741,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5755,13 +5750,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>187</v>
@@ -5770,10 +5765,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5781,7 +5776,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5804,13 +5799,13 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5861,7 +5856,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5870,7 +5865,7 @@
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -5885,10 +5880,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5896,7 +5891,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5919,16 +5914,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5978,7 +5973,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -5993,16 +5988,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -258,11 +258,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Detailed information about conditions, problems or diagnoses 身体的状態、問題、診断に関する詳細情報</t>
+    <t>Detailed information about conditions, problems or diagnoses 患者の臨床状態、問題、または診断に関する詳細な情報</t>
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
-患者の健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)を表現する。</t>
+健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)。</t>
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
@@ -509,27 +509,10 @@
   </si>
   <si>
     <t>The clinical status of the condition.
-臨床的状態のステータス（アクティブか否かなど）。</t>
-  </si>
-  <si>
-    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-codeとしてhttp://terminology.hl7.org/CodeSystem/condition-clinicalでは
-Lv0 active: 状態による症状が現在継続している、または状態を裏付ける所見などが存在していることを指す。
-Lv1 recurrence: 過去に一回解消した問題が再発していることを指す。
-Lv1 relapse: 過去に改善または寛解を得た状態が再度悪化していることを指す。
-Lv0 inactive: 状態による症状が現在存在していない、または状態を裏付ける所見などが存在していないことを指す。
-Lv1 remission: 状態による症状が現在存在していないが、再発のリスクを有している場合を指す。
-Lv1 resolved: 状態による症状が現在存在していおらず、再発のリスクを考慮する必要がない場合を指す。
-上記が入力されるが、JP Coreでは保険病名の表現を可能とするため、上記情報に加え下記を表現可能とするか否か検討のひつようがある。別個にclinicaloutcomeを作成する検討の必要性がある。
-退院時転帰
-1 =資源病名が治癒したと判断される場合
-2 =資源病名が軽快したと判断される場合
-3 =資源病名が寛解したと判断される場合
-4 =資源病名が不変と判断される場合
-5 =資源病名が増悪したと判断される場合
-6 =資源病名による死亡
-7 =資源病名以外による死亡
-9 =その他(検査入院含む)</t>
+状態の臨床的なステータス（アクティブか否かなど）</t>
+  </si>
+  <si>
+    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>required</t>
@@ -568,19 +551,18 @@
   </si>
   <si>
     <t>The verification status to support the clinical status of the condition.
-clinicalStatus の確からしさ。</t>
-  </si>
-  <si>
-    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
+ clinicalStatusの検証ステータス（未確定、暫定的、鑑別的、確定的など）</t>
+  </si>
+  <si>
+    <t>verificationStatus is not required. For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
 The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-codeとしてhttp://terminology.hl7.org/CodeSystem/condition-ver-statusを用い、具体的には
+CodeSystemはhttp://terminology.hl7.org/CodeSystem/condition-ver-statusを用いる。
 Lv0 unconfirmed: 該当する状態の存在を確定とは言い切れないことを示す。
 Lv1 provisional: 該当する状態の存在は暫定的であることを示す。
 Lv1 differential: 該当する状態を鑑別するべき意図で記載されたことを示す。
 Lv0 confirmed: 該当する状態は十分な根拠によって確定されたものであることを示す。
 Lv0 refuted: 該当する状態は十分な根拠によって除外されたものであることを示す。
-Lv0 entered-in-error: 有効でない入力であることを示す。
-上記が入力される。</t>
+Lv0 entered-in-error: 有効でない入力であることを示す。</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -609,38 +591,18 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t>problem-list-item | encounter-diagnosis | health-concern</t>
-  </si>
-  <si>
-    <t>A category assigned to the condition.
-本状態のカテゴリ。プロブレムリスト項目、受診時診断、健康問題、など。</t>
-  </si>
-  <si>
-    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.
-カテゴリー情報は多くの場合、高度にコンテキストに依存しているので、他のコンテキストでは十分にカテゴリーとして区分されていないか、あまり役に立たないように見える場合がある。
-【JP-CORE】
-encounter diagnosisの概念を残すかどうかについて検討の余地がある。
-[案1]
-codeとしてhttp://terminology.hl7.org/CodeSystem/condition-categoryを参考にするが、保険登録病名として反映可能かどうかの情報を含める。具体的には、
-problem-list-item-available-as-claim-diagnosis: 時間的な幅をもってプロブレムリストの一つとして扱われているもののうち、保険病名として反映すべきものを示す。
-problem-list-item-unavailable-as-claim-diagnosis: 時間的な幅をもってプロブレムリストの一つとして扱われているもののうち、保険病名として反映すべきでないものを示す。
-encounter-diagnosis-available-as-claim-diagnosis: 時間的な幅を持たず瞬間的な判断根拠によって示された状態表現のうち、保険病名として反映すべきものを示す。
-encounter-diagnosis: 時間的な幅を持たず瞬間的な判断根拠によって示された状態表現のうち、保険病名として反映すべきでないものを示す。
-上記が入力される。
-[案2]
-保険登録病名として反映可能かどうかの情報のみを示す。具体的には、
-available-as-claim-diagnosis: 保険病名として反映すべきものを示す。
-unavailable-as-claim-diagnosis: 保険病名として反映すべきでないものを示す。
-上記が入力される。
-＊US Coreに倣い、problem-list-item | encounter-diagnosis | health-concernとしている。カーディナリティを1..1としているため、このいずれかが入力されることになるため検討を必要とする。</t>
+    <t>problem-list-item | encounter-diagnosis</t>
+  </si>
+  <si>
+    <t>A category assigned to the condition.</t>
+  </si>
+  <si>
+    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A category assigned to the condition.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/condition-category</t>
   </si>
   <si>
@@ -659,7 +621,7 @@
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>Subjective severity of condition　状態の主観的な重症度</t>
+    <t>Subjective severity of condition 主観的な重症度</t>
   </si>
   <si>
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
@@ -667,12 +629,8 @@
   </si>
   <si>
     <t>Coding of the severity with a terminology is preferred, where possible.
-可能な限り、ターミノロジーを用いて重症度をコーディングすること。
-【JP-CORE】
-codeとしてhttp://snomed.info/sctに定義された下記が用いられる。
-code:24484000 Display:Severe
-code:6736007 Display:Moderate
-code:255604002 Display:Mild</t>
+可能な限り、ターミノロジーを用いて重症度をコーディングすることが好ましい。
+ 本プロファイルはHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ConditionSeverity_VS</t>
@@ -700,19 +658,10 @@
 </t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis　状態、問題、診断の識別情報</t>
-  </si>
-  <si>
-    <t>Identification of the condition, problem or diagnosis.
-本状態の種類を表すコード。</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。
-【JP-CORE】
-＊value-setに下記も含める前提として、カーディナリティを1..1としている
-sct:160245001  No current problems or disability
-sct:3219008  Disease type AND/OR category unknown</t>
+    <t>Identification of the condition, problem or diagnosis 臨床状態、問題、診断の識別情報</t>
+  </si>
+  <si>
+    <t>Identification of the condition, problem or diagnosis.</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -757,20 +706,13 @@
     <t>Condition.bodySite</t>
   </si>
   <si>
-    <t>Anatomical location, if relevant　もし関連しているのがあれば人体部位</t>
-  </si>
-  <si>
-    <t>The anatomical location where this condition manifests itself.
-本状態が存在する人体部位。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.
-Condition.codeにあるコードでは暗黙的に部位が不明な場合にのみ使用する。BodySiteリソースの属性が必要な場合（たとえば、個別に部位を識別して追跡するため）、標準の拡張extension[bodySite]（extension-bodysite.html）を使用する。要約したコード（ある程度抽象化された部位を示すコードの意）、または非常に正確な場所の定義への参照、あるいはその両方である可能性がある。
-【例】
-codeとしてhttp://snomed.info/sctに定義された 442083009 (Anatomical or acquired body structure)が用いられる。
-例
-code:344001 Display:Ankle
-code:955009 Display:Bronchus</t>
+    <t>Anatomical location, if relevant もし関連するのであれば、その人体部位</t>
+  </si>
+  <si>
+    <t>The anatomical location where this condition manifests itself.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -795,21 +737,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
-    <t>Who has the condition?　誰がこの状態の人か</t>
-  </si>
-  <si>
-    <t>Indicates the patient or group who the condition record is associated with.
-本状態に関連付けられる患者やグループ。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-必須(Cardinality 1...1)とする。</t>
+    <t>Who has the condition?</t>
+  </si>
+  <si>
+    <t>Indicates the patient or group who the condition record is associated with.</t>
   </si>
   <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
@@ -830,21 +765,19 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
-    <t>Encounter created as part of　受診詳細情報</t>
+    <t>Encounter created as part of</t>
   </si>
   <si>
     <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.
-本状態が記録されたり、このレコードの作成と密接に関連づけられる受診詳細情報。</t>
+本状態の記録やレコードの作成に関連づけられる受診詳細情報。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".
-これは通常、イベントが発生したエンカウンターだが、場合によっては病状状態は、エンカウンターが完了する前または後に開始されているる場合がある。それでもエンカウンターのコンテキストに関連付けられる。このレコードは、この特定のレコードが関連付けられているエンカウンターを示す。状態に関する進行中/新しい情報を反映した「新しい」診断の場合には、それまでに存在していた状態がはじめて「知られた」最初のエンカウンターとは異なる可能性がある。
-【JP仕様】
-入院外来の区別や所在場所、担当診療科の情報に使用する。付加的な情報であり、1...1には制約しない。</t>
+これは通常、イベントが発生したエンカウンターだが、場合によっては病状状態は、エンカウンターが完了する前または後に開始されているる場合がある。それでもエンカウンターのコンテキストに関連付けられる。このレコードは、この特定のレコードが関連付けられているエンカウンターを示す。状態に関する進行中/新しい情報を反映した「新しい」診断の場合には、それまでに存在していた状態がはじめて「知られた」最初のエンカウンターとは異なる可能性がある。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -866,7 +799,7 @@
 AgePeriodRangestring</t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age　推定される、または実際に始まった日付または日時または年齢</t>
+    <t>Estimated or actual date,  date-time, or age 推定される、または実際に始まった日付または日時または年齢</t>
   </si>
   <si>
     <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
@@ -892,7 +825,7 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>When in resolution/remission　治癒（解決）または寛解した時期</t>
+    <t>When in resolution/remission 治癒（解決）/寛解した時期</t>
   </si>
   <si>
     <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.
@@ -900,7 +833,7 @@
   </si>
   <si>
     <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.
-多くの場合、解決と寛解の間に明確な区別はない。年齢は一般的に、患者が状態が緩和した年齢を報告するケースで使用される。軽快要素がない場合、状態が解決したか、寛解に入ったかは不明である。アプリケーションとユーザーは通常、状態がまだ有効であると想定する必要があ。 abatementStringが存在する場合、それは状態が軽快されることを意味する。</t>
+多くの場合、解決と寛解の間に明確な区別はない。年齢は一般的に、患者が状態が緩和した年齢を報告するケースで使用される。軽快要素がない場合、状態が解決したか、寛解に入ったかは不明である。アプリケーションとユーザーは通常、状態がまだ有効であると想定する必要がある。abatementStringが存在する場合、それは状態が軽快されることを意味する。</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -920,11 +853,11 @@
 </t>
   </si>
   <si>
-    <t>Date record was first recorded　記録が最初に記録された日付</t>
+    <t>Date record was first recorded 記録が最初に記録された日</t>
   </si>
   <si>
     <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.
-レコードがシステムで作成された日時。多くの場合、システムで生成された日付。</t>
+レコードがシステムで作成された日時。多くの場合、システムで生成された日。</t>
   </si>
   <si>
     <t>REL-11</t>
@@ -939,21 +872,19 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Who recorded the condition　この状態を記録した人</t>
+    <t>Who recorded the condition 誰がこの状態を記録したか</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
-本記録を記録し、その内容に責任を負う個人。</t>
+本記録を記録し、その内容に責任を負う人。</t>
   </si>
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
-FHIR規定仕様においてCardinalityで0を許容しているのは記載内容の責任者と記録者が異なるケースを想定していると考えられるが、現状の診療で一般的に行われるカルテ記載形式を考慮し、Cardinality 1...1を検討するべきとも考えれるため、基本的には本要素には値を設定する。</t>
+参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].role</t>
@@ -965,7 +896,11 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t>Person who asserts this condition　この状態があるというした人</t>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
+</t>
+  </si>
+  <si>
+    <t>Person who asserts this condition この状態をアサートした人</t>
   </si>
   <si>
     <t>Individual who is making the condition statement.
@@ -994,11 +929,11 @@
 </t>
   </si>
   <si>
-    <t>Stage/grade, usually assessed formally　ステージやグレードで、普通は正式に評価されたもの。</t>
+    <t>Stage/grade, usually assessed formally ステージやグレードで、通常は正式に評価されたもの</t>
   </si>
   <si>
     <t>Clinical stage or grade of a condition. May include formal severity assessments.
-病状の臨床病期またはグレード。正式な重症度評価が含まれる場合がある。</t>
+病状の臨床病期またはグレード。正式な重症度評価を含む場合がある。</t>
   </si>
   <si>
     <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
@@ -1074,7 +1009,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference(ClinicalImpression|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common)
 </t>
   </si>
   <si>
@@ -1108,7 +1043,7 @@
     <t>Condition.evidence</t>
   </si>
   <si>
-    <t>Supporting evidence　事実の支持する証拠</t>
+    <t>Supporting evidence</t>
   </si>
   <si>
     <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.
@@ -1116,11 +1051,7 @@
   </si>
   <si>
     <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.
-エビデンスは、コード化された症状/症状の単純なリスト、または観察または正式な評価への参照、あるいはその両方である可能性がある。
-【仕様例】
-codeとしてhttp://snomed.info/sctに定義された 404684003 (Clinical finding)が用いられる。
-例
-code:1735007 Display:Thrill</t>
+このエビデンスは、コード化された症状/症状の単純なリスト、観察または正式な評価への言及、あるいはその両方であってもよい。</t>
   </si>
   <si>
     <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
@@ -1187,11 +1118,11 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the Condition　状態に関する追加情報</t>
-  </si>
-  <si>
-    <t>Additional information about the Condition. This is a general notes/comments entry  for description of the Condition, its diagnosis and prognosis.
-態に関する追加情報。これは、状態、その診断および予後の説明のための一般的なメモ/コメントエントリ。</t>
+    <t>Additional information about the Condition この状態に関する追加情報</t>
+  </si>
+  <si>
+    <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.
+本状態に関する追加情報。これは、本状態の説明、診断、予後に関する一般的なメモ/コメントである。</t>
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
@@ -1531,7 +1462,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3156,10 +3087,10 @@
         <v>184</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
@@ -3195,16 +3126,16 @@
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>78</v>
@@ -3212,7 +3143,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3238,13 +3169,13 @@
         <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3274,7 +3205,7 @@
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
@@ -3292,7 +3223,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3310,28 +3241,28 @@
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3353,16 +3284,14 @@
         <v>156</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" s="2"/>
+      <c r="N16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3387,14 +3316,14 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="X16" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3411,7 +3340,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3426,27 +3355,27 @@
         <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3472,13 +3401,13 @@
         <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3504,13 +3433,13 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>78</v>
@@ -3528,7 +3457,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -3546,28 +3475,28 @@
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3586,19 +3515,17 @@
         <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" s="2"/>
+      <c r="N18" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>78</v>
@@ -3647,7 +3574,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>89</v>
@@ -3662,19 +3589,19 @@
         <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>78</v>
@@ -3682,7 +3609,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3705,16 +3632,16 @@
         <v>90</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3764,7 +3691,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -3779,19 +3706,19 @@
         <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>78</v>
@@ -3799,7 +3726,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3822,16 +3749,16 @@
         <v>90</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3881,7 +3808,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -3896,19 +3823,19 @@
         <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>78</v>
@@ -3916,7 +3843,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3939,16 +3866,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3998,7 +3925,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4007,7 +3934,7 @@
         <v>89</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>101</v>
@@ -4022,10 +3949,10 @@
         <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>78</v>
@@ -4033,7 +3960,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4056,13 +3983,13 @@
         <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4113,7 +4040,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>79</v>
@@ -4134,13 +4061,13 @@
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>78</v>
@@ -4148,7 +4075,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4171,16 +4098,16 @@
         <v>90</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4230,7 +4157,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -4254,10 +4181,10 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4265,7 +4192,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4288,16 +4215,16 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4347,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4368,13 +4295,13 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4382,7 +4309,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4405,13 +4332,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4462,7 +4389,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4474,7 +4401,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -4486,7 +4413,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4497,7 +4424,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4523,10 +4450,10 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4577,7 +4504,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4601,7 +4528,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4612,7 +4539,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4641,7 +4568,7 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
@@ -4694,7 +4621,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4718,7 +4645,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4729,11 +4656,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4755,10 +4682,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4813,7 +4740,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4848,7 +4775,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4874,10 +4801,10 @@
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4904,13 +4831,13 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -4928,7 +4855,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -4937,7 +4864,7 @@
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
@@ -4946,13 +4873,13 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -4963,7 +4890,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4986,13 +4913,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5043,7 +4970,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5052,7 +4979,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
@@ -5067,7 +4994,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5078,7 +5005,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5104,10 +5031,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5134,13 +5061,13 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5158,7 +5085,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5182,7 +5109,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5193,7 +5120,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5216,16 +5143,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5275,7 +5202,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5287,7 +5214,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5299,7 +5226,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5310,7 +5237,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5336,10 +5263,10 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5390,7 +5317,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5414,7 +5341,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5425,7 +5352,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5454,7 +5381,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -5507,7 +5434,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5531,7 +5458,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5542,11 +5469,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5568,10 +5495,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5626,7 +5553,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5661,7 +5588,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5687,10 +5614,10 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5717,13 +5644,13 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5741,7 +5668,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5750,25 +5677,25 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5776,7 +5703,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5799,13 +5726,13 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5856,7 +5783,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5865,7 +5792,7 @@
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -5880,10 +5807,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5891,7 +5818,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5914,16 +5841,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5973,7 +5900,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -5988,16 +5915,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>本プロファイルはConditionリソースに対して、患者の健康状態に関するデータを送受信するための共通の制約と拡張を定めたものである。</t>
+    <t>このプロファイルはConditionリソースに対して、患者の健康状態に関するデータを送受信するための共通の制約と拡張を定めたものである。</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -262,7 +262,7 @@
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
-健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(conditon)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)。</t>
+健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)。</t>
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -909,7 +909,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-CORE】
+【JP-Core仕様】
 通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -883,7 +883,7 @@
 本記録を記録し、その内容に責任を負う人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -907,7 +907,7 @@
 本状態があるという事実を作成した個人。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
 【JP-Core仕様】
 通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -909,8 +909,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】
-通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
+【JP-Core仕様】通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -909,7 +909,7 @@
   <si>
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP-Core仕様】通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
+【JP Core仕様】通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -290,7 +290,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -943,6 +943,10 @@
   </si>
   <si>
     <t>Condition.stage.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4446,13 +4450,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4503,7 +4507,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4527,7 +4531,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4538,7 +4542,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4567,7 +4571,7 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
@@ -4620,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4644,7 +4648,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4655,11 +4659,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4681,10 +4685,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4739,7 +4743,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4800,10 +4804,10 @@
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4833,10 +4837,10 @@
         <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -4854,7 +4858,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -4863,7 +4867,7 @@
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
@@ -4872,7 +4876,7 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
@@ -4889,7 +4893,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4912,13 +4916,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4969,7 +4973,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -4978,7 +4982,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
@@ -4993,7 +4997,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5004,7 +5008,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5030,10 +5034,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5063,10 +5067,10 @@
         <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5084,7 +5088,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5108,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5119,7 +5123,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5145,13 +5149,13 @@
         <v>281</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5201,7 +5205,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5213,7 +5217,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5225,7 +5229,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5236,7 +5240,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5259,13 +5263,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5316,7 +5320,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5340,7 +5344,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5351,7 +5355,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5380,7 +5384,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -5433,7 +5437,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5457,7 +5461,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5468,11 +5472,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5494,10 +5498,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5552,7 +5556,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5587,7 +5591,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5613,10 +5617,10 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5646,10 +5650,10 @@
         <v>205</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5667,7 +5671,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5676,13 +5680,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>186</v>
@@ -5691,10 +5695,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5702,7 +5706,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5725,13 +5729,13 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5782,7 +5786,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5791,7 +5795,7 @@
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -5806,10 +5810,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5817,7 +5821,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5840,16 +5844,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5899,7 +5903,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -5914,16 +5918,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="345">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,11 +258,11 @@
     <t>*</t>
   </si>
   <si>
-    <t>Detailed information about conditions, problems or diagnoses 患者の臨床状態、問題、または診断に関する詳細な情報</t>
+    <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報。</t>
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
-健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床医学的概念(clinical concept)。</t>
+健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
   </si>
   <si>
     <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
@@ -384,7 +384,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約。</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -478,12 +478,10 @@
     <t>External Ids for this condition</t>
   </si>
   <si>
-    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.
-実行者または他のシステムによってこの条件に割り当てられたビジネス識別子。リソースが更新され、サーバーからサーバーに伝送されるときにも変化しない。</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.
-これはビジネス識別子であり、リソース識別子ではない。全インスタンスを通して識別子は単一インスタンスを指し示すことがベストである。しかし、異なるリソースタイプの複数のリソースインスタンスに同じ識別子を割り当てることも稀にはある。例えば、重複するPatientリソースインスタンスとPersonリソースインスタンスは同じソーシャルセキュリティー番号を共有することなどである。</t>
+    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
   </si>
   <si>
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -505,11 +503,11 @@
 </t>
   </si>
   <si>
-    <t>active | recurrence | relapse | inactive | remission | resolved</t>
+    <t>active | recurrence | relapse | inactive | remission | resolved （アクティブ｜再発｜再燃｜インアクティブ｜寛解｜完治）</t>
   </si>
   <si>
     <t>The clinical status of the condition.
-状態の臨床的なステータス（アクティブか否かなど）</t>
+この患者状態の臨床的ステータス（アクティブか否かなど）</t>
   </si>
   <si>
     <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
@@ -547,22 +545,15 @@
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error</t>
+    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error（十分に確認されていない｜暫定的｜鑑別的｜十分な根拠で存在｜十分な根拠で否定｜誤記載）</t>
   </si>
   <si>
     <t>The verification status to support the clinical status of the condition.
- clinicalStatusの検証ステータス（未確定、暫定的、鑑別的、確定的など）</t>
-  </si>
-  <si>
-    <t>verificationStatus is not required. For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
-The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.
-CodeSystemはhttp://terminology.hl7.org/CodeSystem/condition-ver-statusを用いる。
-Lv0 unconfirmed: 該当する状態の存在を確定とは言い切れないことを示す。
-Lv1 provisional: 該当する状態の存在は暫定的であることを示す。
-Lv1 differential: 該当する状態を鑑別するべき意図で記載されたことを示す。
-Lv0 confirmed: 該当する状態は十分な根拠によって確定されたものであることを示す。
-Lv0 refuted: 該当する状態は十分な根拠によって除外されたものであることを示す。
-Lv0 entered-in-error: 有効でない入力であることを示す。</t>
+ この患者状態が存在するかどうかの検証状況。</t>
+  </si>
+  <si>
+    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
+The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -591,7 +582,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t>problem-list-item | encounter-diagnosis</t>
+    <t>problem-list-item | encounter-diagnosis（プロブレムリスト｜一時的な診断）</t>
   </si>
   <si>
     <t>A category assigned to the condition.</t>
@@ -621,16 +612,16 @@
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>Subjective severity of condition 主観的な重症度</t>
+    <t>Subjective severity of condition. この患者状態の重症度。本プロファイルは、HL70421 Severity of Illness Codeで表現。</t>
   </si>
   <si>
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
-医師によって評価された本状態の主観的な重症度。</t>
+医療者によって評価されたこの患者状態の重症度。</t>
   </si>
   <si>
     <t>Coding of the severity with a terminology is preferred, where possible.
 可能な限り、ターミノロジーを用いて重症度をコーディングすることが好ましい。
- 本プロファイルはHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
+ 本プロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ConditionSeverity_VS</t>
@@ -658,7 +649,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis 臨床状態、問題、診断の識別情報</t>
+    <t>Identification of the condition, problem or diagnosis. この患者状態の識別コード。</t>
   </si>
   <si>
     <t>Identification of the condition, problem or diagnosis.</t>
@@ -706,7 +697,7 @@
     <t>Condition.bodySite</t>
   </si>
   <si>
-    <t>Anatomical location, if relevant もし関連するのであれば、その人体部位</t>
+    <t>Anatomical location, if relevant. もし関連するのであれば、その人体部位。</t>
   </si>
   <si>
     <t>The anatomical location where this condition manifests itself.</t>
@@ -741,7 +732,7 @@
 </t>
   </si>
   <si>
-    <t>Who has the condition?</t>
+    <t>Who has the condition? 誰がこの状態を有するか。</t>
   </si>
   <si>
     <t>Indicates the patient or group who the condition record is associated with.</t>
@@ -769,15 +760,14 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of</t>
+    <t>Encounter created as part of. この患者状態の記録に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
     <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.
-本状態の記録やレコードの作成に関連づけられる受診詳細情報。</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".
-これは通常、イベントが発生したエンカウンターだが、場合によっては病状状態は、エンカウンターが完了する前または後に開始されているる場合がある。それでもエンカウンターのコンテキストに関連付けられる。このレコードは、この特定のレコードが関連付けられているエンカウンターを示す。状態に関する進行中/新しい情報を反映した「新しい」診断の場合には、それまでに存在していた状態がはじめて「知られた」最初のエンカウンターとは異なる可能性がある。</t>
+この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -799,7 +789,7 @@
 AgePeriodRangestring</t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age 推定される、または実際に始まった日付または日時または年齢</t>
+    <t>Estimated or actual date,  date-time, or age. この患者状態のオンセット。推定もしくは実際の日付、日時、年齢。</t>
   </si>
   <si>
     <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
@@ -825,15 +815,14 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>When in resolution/remission 治癒（解決）/寛解した時期</t>
+    <t>When in resolution/remission. 治癒（解決）/寛解した時期。</t>
   </si>
   <si>
     <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.
 状態が解決した、または寛解した日付または推定日。これは、「寛解」または「治癒（解決）」のどちらかを使うには意味が重すぎることから「軽快」と呼ばれる-状態は実際には治癒していないが、軽快にすることはできる。</t>
   </si>
   <si>
-    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.
-多くの場合、解決と寛解の間に明確な区別はない。年齢は一般的に、患者が状態が緩和した年齢を報告するケースで使用される。軽快要素がない場合、状態が解決したか、寛解に入ったかは不明である。アプリケーションとユーザーは通常、状態がまだ有効であると想定する必要がある。abatementStringが存在する場合、それは状態が軽快されることを意味する。</t>
+    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -853,11 +842,11 @@
 </t>
   </si>
   <si>
-    <t>Date record was first recorded 記録が最初に記録された日</t>
+    <t>Date record was first recorded. この患者状態が初めて記録された日時。</t>
   </si>
   <si>
     <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.
-レコードがシステムで作成された日時。多くの場合、システムで生成された日。</t>
+この患者状態の記録がシステムで作成された日時を表し、多くの場合、システムが生成した日付である。</t>
   </si>
   <si>
     <t>REL-11</t>
@@ -876,15 +865,11 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the condition 誰がこの状態を記録したか</t>
+    <t>Who recorded the condition. 誰がこの患者状態を記録したか。</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
-本記録を記録し、その内容に責任を負う人。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+この患者状態を記録しその内容に責任を持つ個人。</t>
   </si>
   <si>
     <t>.participation[typeCode=AUT].role</t>
@@ -900,16 +885,11 @@
 </t>
   </si>
   <si>
-    <t>Person who asserts this condition この状態をアサートした人</t>
+    <t>Person who asserts this condition. この患者状態の情報源。</t>
   </si>
   <si>
     <t>Individual who is making the condition statement.
-本状態があるという事実を作成した個人。</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。
-【JP Core仕様】通常の診療では判断した個人と記載した個人は同一であるケースが一般的であり、既存の情報の転記などの際に、記載者と状態の存在を判断した個人が異なる場合に記入が必要となると考えられる。</t>
+この患者状態に関する情報の発生源または取得元。</t>
   </si>
   <si>
     <t>REL-7.1 identifier + REL-7.12 type code</t>
@@ -928,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t>Stage/grade, usually assessed formally ステージやグレードで、通常は正式に評価されたもの</t>
+    <t>Stage/grade, usually assessed formally. この患者状態のステージやグレード。通常は正式に評価されたもの。</t>
   </si>
   <si>
     <t>Clinical stage or grade of a condition. May include formal severity assessments.
@@ -1046,15 +1026,14 @@
     <t>Condition.evidence</t>
   </si>
   <si>
-    <t>Supporting evidence</t>
+    <t>Supporting evidence. 患者状態の存在に関する根拠。</t>
   </si>
   <si>
     <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.
-状態を確認または反駁した証拠など、状態の検証ステータスの基礎となる裏付けとなる証拠/兆候。</t>
-  </si>
-  <si>
-    <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.
-このエビデンスは、コード化された症状/症状の単純なリスト、観察または正式な評価への言及、あるいはその両方であってもよい。</t>
+患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
+  </si>
+  <si>
+    <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
   </si>
   <si>
     <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
@@ -1121,16 +1100,11 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the Condition この状態に関する追加情報</t>
+    <t>Additional information about the Condition. この患者状態に関する追加情報。</t>
   </si>
   <si>
     <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.
-本状態に関する追加情報。これは、本状態の説明、診断、予後に関する一般的なメモ/コメントである。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+この患者状態に関する追加情報。これは、状態の説明、診断、予後に関するメモやコメントである。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1465,7 +1439,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="119.546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4109,9 +4083,7 @@
       <c r="L23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4184,10 +4156,10 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4195,7 +4167,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4218,17 +4190,15 @@
         <v>90</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>276</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -4277,7 +4247,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -4298,13 +4268,13 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>78</v>
@@ -4312,7 +4282,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4335,13 +4305,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4392,7 +4362,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4404,7 +4374,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -4416,7 +4386,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4427,7 +4397,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4450,13 +4420,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4507,7 +4477,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -4531,7 +4501,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -4542,7 +4512,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4571,7 +4541,7 @@
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>138</v>
@@ -4624,7 +4594,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -4648,7 +4618,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -4659,11 +4629,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4685,10 +4655,10 @@
         <v>135</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>138</v>
@@ -4743,7 +4713,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -4778,7 +4748,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4804,10 +4774,10 @@
         <v>156</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4837,10 +4807,10 @@
         <v>205</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>78</v>
@@ -4858,7 +4828,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>79</v>
@@ -4867,7 +4837,7 @@
         <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>101</v>
@@ -4876,7 +4846,7 @@
         <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>166</v>
@@ -4893,7 +4863,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4916,13 +4886,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4973,7 +4943,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -4982,7 +4952,7 @@
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>101</v>
@@ -4997,7 +4967,7 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5008,7 +4978,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5034,10 +5004,10 @@
         <v>156</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5067,10 +5037,10 @@
         <v>205</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -5088,7 +5058,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -5112,7 +5082,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5123,7 +5093,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5146,16 +5116,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5205,7 +5175,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -5217,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -5229,7 +5199,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5240,7 +5210,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5263,13 +5233,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5320,7 +5290,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5344,7 +5314,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5355,7 +5325,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5384,7 +5354,7 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>138</v>
@@ -5437,7 +5407,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5461,7 +5431,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5472,11 +5442,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5498,10 +5468,10 @@
         <v>135</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>138</v>
@@ -5556,7 +5526,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5591,7 +5561,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5617,10 +5587,10 @@
         <v>156</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5650,10 +5620,10 @@
         <v>205</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>78</v>
@@ -5671,7 +5641,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -5680,13 +5650,13 @@
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>186</v>
@@ -5695,10 +5665,10 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -5706,7 +5676,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5729,13 +5699,13 @@
         <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5786,7 +5756,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -5795,7 +5765,7 @@
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>101</v>
@@ -5810,10 +5780,10 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -5821,7 +5791,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5844,17 +5814,15 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>344</v>
-      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>78</v>
@@ -5903,7 +5871,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -5918,16 +5886,16 @@
         <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of. この患者状態の記録に関連する受療の状況（外来、入院、救急、在宅など）</t>
+    <t>Encounter created as part of. この患者状態の記録が作成された受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
     <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -793,7 +793,7 @@
   </si>
   <si>
     <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
-臨床医の判断における、本状態が始まったと推定される、または実際に始まった日付または日時。</t>
+臨床医の判断における、本状態が始まったと推定される、または実際に始まった日または日時。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the Condition began to occur.
@@ -815,11 +815,10 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>When in resolution/remission. 治癒（解決）/寛解した時期。</t>
-  </si>
-  <si>
-    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.
-状態が解決した、または寛解した日付または推定日。これは、「寛解」または「治癒（解決）」のどちらかを使うには意味が重すぎることから「軽快」と呼ばれる-状態は実際には治癒していないが、軽快にすることはできる。</t>
+    <t>When in resolution/remission. この状態はいつ治癒／寛解／軽快したか。</t>
+  </si>
+  <si>
+    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
   </si>
   <si>
     <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -503,7 +503,7 @@
 </t>
   </si>
   <si>
-    <t>active | recurrence | relapse | inactive | remission | resolved （アクティブ｜再発｜再燃｜インアクティブ｜寛解｜完治）</t>
+    <t>active | recurrence | relapse | inactive | remission | resolved （アクティブ | 再発 | 再燃 | インアクティブ | 寛解 | 完治）</t>
   </si>
   <si>
     <t>The clinical status of the condition.
@@ -545,7 +545,7 @@
     <t>Condition.verificationStatus</t>
   </si>
   <si>
-    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error（十分に確認されていない｜暫定的｜鑑別的｜十分な根拠で存在｜十分な根拠で否定｜誤記載）</t>
+    <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error（十分に確認されていない | 暫定的 | 鑑別的 | 十分な根拠で存在 | 十分な根拠で否定 | 誤記載）</t>
   </si>
   <si>
     <t>The verification status to support the clinical status of the condition.
@@ -582,7 +582,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t>problem-list-item | encounter-diagnosis（プロブレムリスト｜一時的な診断）</t>
+    <t>problem-list-item | encounter-diagnosis（プロブレムリスト | 一時的な診断）</t>
   </si>
   <si>
     <t>A category assigned to the condition.</t>
@@ -1438,7 +1438,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="119.546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -620,7 +620,7 @@
   </si>
   <si>
     <t>Coding of the severity with a terminology is preferred, where possible.
-可能な限り、ターミノロジーを用いて重症度をコーディングすることが好ましい。
+可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。
  本プロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -612,7 +612,7 @@
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>Subjective severity of condition. この患者状態の重症度。本プロファイルは、HL70421 Severity of Illness Codeで表現。</t>
+    <t>Subjective severity of condition. この患者状態の重症度。このプロファイルは、HL70421 Severity of Illness Codeで表現。</t>
   </si>
   <si>
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
@@ -621,7 +621,7 @@
   <si>
     <t>Coding of the severity with a terminology is preferred, where possible.
 可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。
- 本プロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
+ このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ConditionSeverity_VS</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -258,7 +258,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報。</t>
+    <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報</t>
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
@@ -384,7 +384,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約。</t>
+    <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -612,7 +612,7 @@
     <t>Condition.severity</t>
   </si>
   <si>
-    <t>Subjective severity of condition. この患者状態の重症度。このプロファイルは、HL70421 Severity of Illness Codeで表現。</t>
+    <t>Subjective severity of condition. この患者状態の重症度。このプロファイルは、HL70421 Severity of Illness Codeで表現</t>
   </si>
   <si>
     <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
@@ -649,7 +649,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis. この患者状態の識別コード。</t>
+    <t>Identification of the condition, problem or diagnosis. この患者状態の識別コード</t>
   </si>
   <si>
     <t>Identification of the condition, problem or diagnosis.</t>
@@ -697,7 +697,7 @@
     <t>Condition.bodySite</t>
   </si>
   <si>
-    <t>Anatomical location, if relevant. もし関連するのであれば、その人体部位。</t>
+    <t>Anatomical location, if relevant. もし関連するのであれば、その人体部位</t>
   </si>
   <si>
     <t>The anatomical location where this condition manifests itself.</t>
@@ -732,7 +732,7 @@
 </t>
   </si>
   <si>
-    <t>Who has the condition? 誰がこの状態を有するか。</t>
+    <t>Who has the condition? 誰がこの状態を有するか</t>
   </si>
   <si>
     <t>Indicates the patient or group who the condition record is associated with.</t>
@@ -789,7 +789,7 @@
 AgePeriodRangestring</t>
   </si>
   <si>
-    <t>Estimated or actual date,  date-time, or age. この患者状態のオンセット。推定もしくは実際の日付、日時、年齢。</t>
+    <t>Estimated or actual date,  date-time, or age. この患者状態のオンセット。推定もしくは実際の日付、日時、年齢</t>
   </si>
   <si>
     <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
@@ -815,7 +815,7 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>When in resolution/remission. この状態はいつ治癒／寛解／軽快したか。</t>
+    <t>When in resolution/remission. この状態はいつ治癒／寛解／軽快したか</t>
   </si>
   <si>
     <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
@@ -841,7 +841,7 @@
 </t>
   </si>
   <si>
-    <t>Date record was first recorded. この患者状態が初めて記録された日時。</t>
+    <t>Date record was first recorded. この患者状態が初めて記録された日時</t>
   </si>
   <si>
     <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.
@@ -864,7 +864,7 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the condition. 誰がこの患者状態を記録したか。</t>
+    <t>Who recorded the condition. 誰がこの患者状態を記録したか</t>
   </si>
   <si>
     <t>Individual who recorded the record and takes responsibility for its content.
@@ -884,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t>Person who asserts this condition. この患者状態の情報源。</t>
+    <t>Person who asserts this condition. この患者状態の情報源</t>
   </si>
   <si>
     <t>Individual who is making the condition statement.
@@ -907,7 +907,7 @@
 </t>
   </si>
   <si>
-    <t>Stage/grade, usually assessed formally. この患者状態のステージやグレード。通常は正式に評価されたもの。</t>
+    <t>Stage/grade, usually assessed formally. この患者状態のステージやグレード。通常は正式に評価されたもの</t>
   </si>
   <si>
     <t>Clinical stage or grade of a condition. May include formal severity assessments.
@@ -1025,7 +1025,7 @@
     <t>Condition.evidence</t>
   </si>
   <si>
-    <t>Supporting evidence. 患者状態の存在に関する根拠。</t>
+    <t>Supporting evidence. 患者状態の存在に関する根拠</t>
   </si>
   <si>
     <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.
@@ -1099,7 +1099,7 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the Condition. この患者状態に関する追加情報。</t>
+    <t>Additional information about the Condition. この患者状態に関する追加情報</t>
   </si>
   <si>
     <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -624,7 +624,7 @@
  このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ConditionSeverity_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConditionSeverity_VS</t>
   </si>
   <si>
     <t>&lt; 272141005 |Severities|</t>
@@ -1452,7 +1452,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.86328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.6171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -263,10 +266,6 @@
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
-  </si>
-  <si>
-    <t>con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error and category is problem-list-item {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:Condition.clinicalStatus SHALL NOT be present if verification Status is entered-in-error {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1361,55 +1360,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1473,224 +1472,224 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1705,10 +1704,10 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -1717,20 +1716,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>90</v>
@@ -1749,83 +1748,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -1834,20 +1833,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>90</v>
@@ -1864,83 +1863,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -1949,17 +1948,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>90</v>
@@ -1981,83 +1980,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -2066,23 +2065,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>109</v>
@@ -2098,26 +2097,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>113</v>
@@ -2129,52 +2128,52 @@
         <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2187,19 +2186,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>119</v>
@@ -2215,83 +2214,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -2304,19 +2303,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>127</v>
@@ -2332,83 +2331,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -2421,19 +2420,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>135</v>
@@ -2449,83 +2448,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2538,19 +2537,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>90</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>135</v>
@@ -2568,83 +2567,83 @@
         <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -2653,20 +2652,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>90</v>
@@ -2687,62 +2686,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>101</v>
@@ -2751,10 +2750,10 @@
         <v>152</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>153</v>
@@ -2763,7 +2762,7 @@
         <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -2772,17 +2771,17 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>90</v>
@@ -2804,26 +2803,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>160</v>
@@ -2835,25 +2834,25 @@
         <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>89</v>
@@ -2880,7 +2879,7 @@
         <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -2889,17 +2888,17 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>90</v>
@@ -2921,26 +2920,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>160</v>
@@ -2952,25 +2951,25 @@
         <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>89</v>
@@ -3006,23 +3005,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>156</v>
@@ -3038,26 +3037,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>184</v>
@@ -3069,37 +3068,37 @@
         <v>185</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>180</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>186</v>
@@ -3114,7 +3113,7 @@
         <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -3123,23 +3122,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>156</v>
@@ -3155,26 +3154,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>113</v>
@@ -3184,37 +3183,37 @@
         <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>195</v>
@@ -3242,16 +3241,16 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>90</v>
@@ -3270,26 +3269,26 @@
         <v>204</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>205</v>
@@ -3301,31 +3300,31 @@
         <v>207</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>200</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>101</v>
@@ -3355,20 +3354,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>90</v>
@@ -3387,26 +3386,26 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>205</v>
@@ -3418,49 +3417,49 @@
         <v>219</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>214</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>222</v>
@@ -3482,10 +3481,10 @@
         <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>90</v>
@@ -3504,50 +3503,50 @@
         <v>228</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>223</v>
@@ -3559,7 +3558,7 @@
         <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>101</v>
@@ -3568,7 +3567,7 @@
         <v>229</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>230</v>
@@ -3580,7 +3579,7 @@
         <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -3589,20 +3588,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>90</v>
@@ -3621,62 +3620,62 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>233</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>101</v>
@@ -3685,7 +3684,7 @@
         <v>238</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>239</v>
@@ -3697,7 +3696,7 @@
         <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -3706,20 +3705,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>90</v>
@@ -3738,62 +3737,62 @@
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>101</v>
@@ -3802,7 +3801,7 @@
         <v>247</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>248</v>
@@ -3814,7 +3813,7 @@
         <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -3823,23 +3822,23 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
         <v>243</v>
@@ -3855,56 +3854,56 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>251</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>89</v>
@@ -3916,13 +3915,13 @@
         <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>256</v>
@@ -3931,7 +3930,7 @@
         <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -3940,20 +3939,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>90</v>
@@ -3970,71 +3969,71 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>258</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>262</v>
@@ -4046,7 +4045,7 @@
         <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -4055,20 +4054,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>90</v>
@@ -4085,74 +4084,74 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>269</v>
@@ -4161,7 +4160,7 @@
         <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -4170,20 +4169,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>90</v>
@@ -4200,71 +4199,71 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>275</v>
@@ -4276,7 +4275,7 @@
         <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -4285,23 +4284,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>279</v>
@@ -4315,83 +4314,83 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>282</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>283</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
@@ -4400,23 +4399,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>285</v>
@@ -4430,83 +4429,83 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>288</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -4519,19 +4518,19 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>135</v>
@@ -4547,83 +4546,83 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>289</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -4636,13 +4635,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>90</v>
@@ -4666,83 +4665,83 @@
         <v>144</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>297</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
@@ -4751,23 +4750,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>156</v>
@@ -4781,26 +4780,26 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
         <v>205</v>
@@ -4812,25 +4811,25 @@
         <v>302</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>89</v>
@@ -4842,7 +4841,7 @@
         <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>304</v>
@@ -4854,10 +4853,10 @@
         <v>211</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
@@ -4866,23 +4865,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>306</v>
@@ -4896,59 +4895,59 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>305</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>303</v>
@@ -4957,22 +4956,22 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
@@ -4981,23 +4980,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>156</v>
@@ -5011,26 +5010,26 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>205</v>
@@ -5042,52 +5041,52 @@
         <v>314</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>315</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
@@ -5096,23 +5095,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>279</v>
@@ -5128,83 +5127,83 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>320</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
@@ -5213,23 +5212,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>285</v>
@@ -5243,83 +5242,83 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>288</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>289</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -5332,19 +5331,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>135</v>
@@ -5360,83 +5359,83 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
@@ -5449,13 +5448,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>90</v>
@@ -5479,83 +5478,83 @@
         <v>144</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>297</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>140</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -5564,20 +5563,20 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>90</v>
@@ -5594,26 +5593,26 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
         <v>205</v>
@@ -5625,28 +5624,28 @@
         <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>325</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>330</v>
@@ -5661,7 +5660,7 @@
         <v>186</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>332</v>
@@ -5670,7 +5669,7 @@
         <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
@@ -5679,20 +5678,20 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>90</v>
@@ -5709,59 +5708,59 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>330</v>
@@ -5770,13 +5769,13 @@
         <v>101</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>309</v>
@@ -5785,7 +5784,7 @@
         <v>333</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
@@ -5794,23 +5793,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>339</v>
@@ -5824,62 +5823,62 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>338</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>101</v>
@@ -5888,7 +5887,7 @@
         <v>342</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>343</v>
@@ -5897,10 +5896,10 @@
         <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -1418,7 +1421,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1428,46 +1431,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="85.23828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="68.20703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1594,105 +1597,108 @@
       <c r="AO1" t="s" s="1">
         <v>78</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>85</v>
@@ -1704,35 +1710,38 @@
         <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>91</v>
@@ -1746,113 +1755,116 @@
       <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>98</v>
@@ -1860,114 +1872,117 @@
       <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>104</v>
@@ -1978,113 +1993,116 @@
       <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>110</v>
@@ -2095,31 +2113,31 @@
       <c r="M6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
         <v>114</v>
@@ -2128,80 +2146,83 @@
         <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>120</v>
@@ -2212,113 +2233,116 @@
       <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>128</v>
@@ -2329,113 +2353,116 @@
       <c r="M8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>136</v>
@@ -2446,232 +2473,238 @@
       <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>148</v>
@@ -2686,111 +2719,114 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>157</v>
@@ -2801,31 +2837,31 @@
       <c r="M12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>161</v>
@@ -2834,37 +2870,37 @@
         <v>162</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>165</v>
@@ -2879,38 +2915,41 @@
         <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>171</v>
@@ -2918,73 +2957,73 @@
       <c r="M13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
         <v>174</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>175</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>177</v>
@@ -2993,41 +3032,44 @@
         <v>178</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>182</v>
@@ -3035,73 +3077,73 @@
       <c r="M14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>187</v>
@@ -3113,38 +3155,41 @@
         <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>190</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>192</v>
@@ -3152,71 +3197,71 @@
       <c r="M15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>196</v>
@@ -3229,69 +3274,72 @@
       </c>
       <c r="AO15" t="s" s="2">
         <v>199</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
         <v>206</v>
@@ -3300,37 +3348,37 @@
         <v>207</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>209</v>
@@ -3346,37 +3394,40 @@
       </c>
       <c r="AO16" t="s" s="2">
         <v>213</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>216</v>
@@ -3384,113 +3435,116 @@
       <c r="M17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N17" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s" s="2">
         <v>219</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>89</v>
-      </c>
+      <c r="B18" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>226</v>
@@ -3498,79 +3552,79 @@
       <c r="L18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>228</v>
       </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>229</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>231</v>
@@ -3579,35 +3633,38 @@
         <v>232</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>235</v>
@@ -3618,76 +3675,76 @@
       <c r="M19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N19" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>240</v>
@@ -3696,35 +3753,38 @@
         <v>241</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>243</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>244</v>
@@ -3735,76 +3795,76 @@
       <c r="M20" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N20" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>247</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>249</v>
@@ -3813,38 +3873,41 @@
         <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>253</v>
@@ -3852,113 +3915,116 @@
       <c r="M21" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N21" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>80</v>
+        <v>252</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>256</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>259</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>260</v>
@@ -3966,77 +4032,77 @@
       <c r="L22" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>259</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>263</v>
@@ -4045,35 +4111,38 @@
         <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>265</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>267</v>
@@ -4081,114 +4150,117 @@
       <c r="L23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>80</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>273</v>
@@ -4196,77 +4268,77 @@
       <c r="L24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>276</v>
@@ -4275,35 +4347,38 @@
         <v>277</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>280</v>
@@ -4311,114 +4386,117 @@
       <c r="L25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>286</v>
@@ -4426,465 +4504,477 @@
       <c r="L26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>80</v>
-      </c>
+      <c r="B28" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>296</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>302</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>303</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>166</v>
+        <v>305</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>307</v>
@@ -4892,232 +4982,238 @@
       <c r="L30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>304</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>311</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>313</v>
+        <v>206</v>
       </c>
       <c r="Y31" t="s" s="2">
         <v>314</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>318</v>
@@ -5125,113 +5221,116 @@
       <c r="M32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>286</v>
@@ -5239,465 +5338,477 @@
       <c r="L33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>296</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>297</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>326</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>328</v>
+        <v>206</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>329</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>331</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>331</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>335</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>336</v>
@@ -5705,114 +5816,117 @@
       <c r="L37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>79</v>
+      <c r="AP37" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>340</v>
@@ -5820,86 +5934,89 @@
       <c r="L38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>342</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>344</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -262,6 +262,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報</t>
@@ -1629,13 +1633,13 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1701,16 +1705,16 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>80</v>
@@ -1721,10 +1725,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1735,7 +1739,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>80</v>
@@ -1744,19 +1748,19 @@
         <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1806,13 +1810,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -1841,10 +1845,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1855,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>80</v>
@@ -1864,16 +1868,16 @@
         <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1924,19 +1928,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -1959,10 +1963,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1973,28 +1977,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2044,19 +2048,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2079,10 +2083,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2093,7 +2097,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2105,16 +2109,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2140,13 +2144,13 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>80</v>
@@ -2164,19 +2168,19 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2199,21 +2203,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2225,16 +2229,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2284,19 +2288,19 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>80</v>
@@ -2308,7 +2312,7 @@
         <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>80</v>
@@ -2319,14 +2323,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2345,16 +2349,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2404,7 +2408,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2428,7 +2432,7 @@
         <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>80</v>
@@ -2439,14 +2443,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2465,16 +2469,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2524,7 +2528,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -2536,7 +2540,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2548,7 +2552,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>80</v>
@@ -2559,14 +2563,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2579,25 +2583,25 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -2646,7 +2650,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2658,7 +2662,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2670,7 +2674,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>80</v>
@@ -2681,10 +2685,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2704,22 +2708,22 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2768,7 +2772,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -2780,10 +2784,10 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
@@ -2792,10 +2796,10 @@
         <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>80</v>
@@ -2803,10 +2807,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2817,28 +2821,28 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2864,13 +2868,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -2888,34 +2892,34 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>80</v>
@@ -2923,10 +2927,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2937,28 +2941,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2984,13 +2988,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -3008,45 +3012,45 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AP13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3069,16 +3073,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3104,13 +3108,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3128,7 +3132,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3140,22 +3144,22 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -3163,10 +3167,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3177,7 +3181,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3189,16 +3193,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3224,11 +3228,11 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3246,56 +3250,56 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3304,20 +3308,20 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3342,13 +3346,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3366,45 +3370,45 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3424,19 +3428,19 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3462,13 +3466,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3486,7 +3490,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3498,44 +3502,44 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3544,20 +3548,20 @@
         <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3606,34 +3610,34 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -3641,10 +3645,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3655,7 +3659,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3664,19 +3668,19 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3726,34 +3730,34 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -3761,10 +3765,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3775,7 +3779,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3784,19 +3788,19 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3846,34 +3850,34 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -3881,10 +3885,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3895,7 +3899,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -3907,16 +3911,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3966,19 +3970,19 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -3990,10 +3994,10 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4001,10 +4005,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4015,7 +4019,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4024,16 +4028,16 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4084,19 +4088,19 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4105,13 +4109,13 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4119,10 +4123,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4133,7 +4137,7 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4142,16 +4146,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4202,19 +4206,19 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4226,10 +4230,10 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4237,10 +4241,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4251,7 +4255,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4260,16 +4264,16 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4320,19 +4324,19 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4341,13 +4345,13 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4355,10 +4359,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4381,13 +4385,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4438,7 +4442,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4450,7 +4454,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -4462,7 +4466,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4473,10 +4477,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4487,7 +4491,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4499,13 +4503,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4556,13 +4560,13 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
@@ -4580,7 +4584,7 @@
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4591,14 +4595,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4617,16 +4621,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4676,7 +4680,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4688,7 +4692,7 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4700,7 +4704,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4711,14 +4715,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4731,25 +4735,25 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4798,7 +4802,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4810,7 +4814,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -4822,7 +4826,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -4833,10 +4837,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4847,7 +4851,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4859,13 +4863,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4892,13 +4896,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -4916,31 +4920,31 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -4951,10 +4955,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4977,13 +4981,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5034,7 +5038,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5043,10 +5047,10 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5058,7 +5062,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5069,10 +5073,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5083,7 +5087,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5095,13 +5099,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5128,13 +5132,13 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5152,19 +5156,19 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
@@ -5176,7 +5180,7 @@
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5187,10 +5191,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5213,16 +5217,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5272,7 +5276,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5284,7 +5288,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -5296,7 +5300,7 @@
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5307,10 +5311,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5321,7 +5325,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5333,13 +5337,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5390,13 +5394,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5414,7 +5418,7 @@
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5425,14 +5429,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5451,16 +5455,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5510,7 +5514,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5522,7 +5526,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5534,7 +5538,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5545,14 +5549,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5565,25 +5569,25 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5632,7 +5636,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5644,7 +5648,7 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5656,7 +5660,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5667,10 +5671,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5690,16 +5694,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5726,13 +5730,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -5750,7 +5754,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -5759,25 +5763,25 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -5785,10 +5789,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5808,16 +5812,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5868,7 +5872,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -5877,10 +5881,10 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5892,10 +5896,10 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -5903,10 +5907,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5929,13 +5933,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5986,7 +5990,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -5998,19 +6002,19 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="346">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報</t>
@@ -1633,13 +1629,13 @@
         <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1705,16 +1701,16 @@
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AN2" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>80</v>
@@ -1725,10 +1721,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1739,28 +1735,28 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1810,13 +1806,13 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>80</v>
@@ -1845,10 +1841,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1859,25 +1855,25 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1928,19 +1924,19 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>80</v>
@@ -1963,10 +1959,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1977,28 +1973,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2048,19 +2044,19 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -2083,10 +2079,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2097,7 +2093,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>80</v>
@@ -2109,16 +2105,16 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2144,43 +2140,43 @@
         <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>80</v>
@@ -2203,21 +2199,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>80</v>
@@ -2229,16 +2225,16 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2288,31 +2284,31 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>80</v>
@@ -2323,14 +2319,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2349,16 +2345,16 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2408,7 +2404,7 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2432,7 +2428,7 @@
         <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>80</v>
@@ -2443,14 +2439,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2469,16 +2465,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2528,7 +2524,7 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -2540,7 +2536,7 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
@@ -2552,7 +2548,7 @@
         <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>80</v>
@@ -2563,14 +2559,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2583,25 +2579,25 @@
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -2650,7 +2646,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -2662,7 +2658,7 @@
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
@@ -2674,7 +2670,7 @@
         <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>80</v>
@@ -2685,10 +2681,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2708,22 +2704,22 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -2772,7 +2768,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -2784,22 +2780,22 @@
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>80</v>
@@ -2807,10 +2803,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2821,28 +2817,28 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2868,58 +2864,58 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI12" t="s" s="2">
+      <c r="AJ12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AN12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>80</v>
@@ -2927,10 +2923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2941,28 +2937,28 @@
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2988,69 +2984,69 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI13" t="s" s="2">
+      <c r="AJ13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AP13" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3073,16 +3069,16 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3108,14 +3104,14 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Z14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
@@ -3144,22 +3140,22 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -3167,10 +3163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3181,7 +3177,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3193,16 +3189,16 @@
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3228,100 +3224,100 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3346,69 +3342,69 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3428,19 +3424,19 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3466,14 +3462,14 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y17" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3490,7 +3486,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3502,66 +3498,66 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3610,34 +3606,34 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -3645,10 +3641,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3659,28 +3655,28 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3730,34 +3726,34 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -3765,10 +3761,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3779,28 +3775,28 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3850,34 +3846,34 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -3885,10 +3881,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3899,7 +3895,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -3911,16 +3907,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3970,34 +3966,34 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4005,10 +4001,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4019,25 +4015,25 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4088,19 +4084,19 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -4109,13 +4105,13 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4123,10 +4119,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4137,25 +4133,25 @@
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4206,19 +4202,19 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -4230,10 +4226,10 @@
         <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4241,10 +4237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4255,25 +4251,25 @@
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4324,19 +4320,19 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -4345,13 +4341,13 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4359,10 +4355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4385,13 +4381,13 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4442,7 +4438,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4454,19 +4450,19 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4477,10 +4473,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4491,7 +4487,7 @@
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4503,13 +4499,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4560,31 +4556,31 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -4595,14 +4591,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4621,16 +4617,16 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4680,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4692,7 +4688,7 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -4704,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4715,14 +4711,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4735,25 +4731,25 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="N28" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4802,7 +4798,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4814,7 +4810,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -4826,7 +4822,7 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -4837,10 +4833,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4851,7 +4847,7 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4863,13 +4859,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4896,55 +4892,55 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI29" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI29" t="s" s="2">
+      <c r="AJ29" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -4955,10 +4951,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4981,13 +4977,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5038,7 +5034,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5047,10 +5043,10 @@
         <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5062,7 +5058,7 @@
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5073,10 +5069,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5087,7 +5083,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5099,13 +5095,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5132,55 +5128,55 @@
         <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Z31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5191,10 +5187,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5217,16 +5213,16 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5276,7 +5272,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5288,19 +5284,19 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5311,10 +5307,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5325,7 +5321,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5337,13 +5333,13 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5394,31 +5390,31 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -5429,14 +5425,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5455,16 +5451,16 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5514,7 +5510,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5526,7 +5522,7 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -5538,7 +5534,7 @@
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -5549,14 +5545,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5569,25 +5565,25 @@
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5636,7 +5632,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5648,7 +5644,7 @@
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -5660,7 +5656,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -5671,10 +5667,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5694,16 +5690,16 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5730,14 +5726,14 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5754,7 +5750,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -5763,25 +5759,25 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -5789,10 +5785,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5812,16 +5808,16 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5872,7 +5868,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -5881,10 +5877,10 @@
         <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -5896,10 +5892,10 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -5907,10 +5903,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5933,13 +5929,13 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5990,7 +5986,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6002,19 +5998,19 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -300,13 +300,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -319,16 +319,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -339,13 +339,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -358,19 +358,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -393,10 +393,10 @@
     <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -416,13 +416,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -442,30 +442,29 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -481,13 +480,13 @@
 </t>
   </si>
   <si>
-    <t>External Ids for this condition</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+    <t>この状態の外部ID。</t>
+  </si>
+  <si>
+    <t>サーバーからサーバーへ伝搬するにつれて更新され、パフォーマーまたは他のシステムによって割り当てられたビジネス識別子が、この状態に対して一定の値を保持します。</t>
+  </si>
+  <si>
+    <t>これはビジネス識別子であり、リソース識別子ではありません（[discussion]（resource.html＃identifiers）を参照）。 識別子が単一のリソースインスタンスにのみ表示されることが最善の方法ですが、ビジネス上の実践によっては、同じ識別子を持つ複数のリソースインスタンスが存在する場合があります。 たとえば、複数の患者と個人リソースインスタンスが同じ社会保険番号を共有する場合があります。</t>
   </si>
   <si>
     <t>Allows identification of the condition as it is known by various participating systems and in a way that remains consistent across servers.</t>
@@ -516,13 +515,13 @@
 この患者状態の臨床的ステータス（アクティブか否かなど）</t>
   </si>
   <si>
-    <t>The data type is CodeableConcept because clinicalStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
+    <t>データ型はCodeableConceptです。なぜなら、clinicalStatusには一定の臨床判断が含まれるため、必要なFHIR値セットが許容するよりもさらに特定性が必要になる場合があるためです。例えば、SNOMEDコーディングは追加の特定性を許容する場合があります。</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The clinical status of the condition or diagnosis.</t>
+    <t>病態や診断の臨床状態。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-clinical|4.0.1</t>
@@ -558,11 +557,11 @@
  この患者状態が存在するかどうかの検証状況。</t>
   </si>
   <si>
-    <t>verificationStatus is not required.  For example, when a patient has abdominal pain in the ED, there is not likely going to be a verification status.
-The data type is CodeableConcept because verificationStatus has some clinical judgment involved, such that there might need to be more specificity than the required FHIR value set allows. For example, a SNOMED coding might allow for additional specificity.</t>
-  </si>
-  <si>
-    <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
+    <t>検証状態は必須ではありません。例えば、救急治療室で患者が腹痛を訴えた場合、一般的には検証状態が必要ないでしょう。
+データ型はCodeableConceptであり、検証状態には臨床的な判断が必要なため、必要なFHIR値のセットよりも詳細な仕様が必要になる場合があります。例えば、SNOMEDのコーディングではさらに詳細な情報を含むことができます。</t>
+  </si>
+  <si>
+    <t>「状態や診断の臨床状況を支持または拒否するための検証状況」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
@@ -591,10 +590,10 @@
     <t>problem-list-item | encounter-diagnosis（プロブレムリスト | 一時的な診断）</t>
   </si>
   <si>
-    <t>A category assigned to the condition.</t>
-  </si>
-  <si>
-    <t>The categorization is often highly contextual and may appear poorly differentiated or not very useful in other contexts.</t>
+    <t>「状態に割り当てられたカテゴリー。」</t>
+  </si>
+  <si>
+    <t>分類はしばしば文脈に強く依存しており、他の文脈では区別が不十分であるか、あまり役に立たないように見えることがあります。</t>
   </si>
   <si>
     <t>extensible</t>
@@ -658,7 +657,7 @@
     <t>Identification of the condition, problem or diagnosis. この患者状態の識別コード</t>
   </si>
   <si>
-    <t>Identification of the condition, problem or diagnosis.</t>
+    <t>状態、問題、診断の特定。</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -667,7 +666,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Identification of the condition or diagnosis.</t>
+    <t>「状態や診断の特定」(Joutai ya shindan no tokutei)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -706,13 +705,13 @@
     <t>Anatomical location, if relevant. もし関連するのであれば、その人体部位</t>
   </si>
   <si>
-    <t>The anatomical location where this condition manifests itself.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
+    <t>この症状が現れる解剖学的位置。</t>
+  </si>
+  <si>
+    <t>「Condition.code」で暗黙的に表現されない場合にのみ使用します。ユースケースがBodySiteリソースから属性を必要とする場合（例えば、別々に識別して追跡するために）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用してください。概要コードであることも、位置の非常に正確な定義への参照であることもあります。」</t>
+  </si>
+  <si>
+    <t>解剖学的位置を記述するコード。左右対称性を含む場合があります。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/body-site</t>
@@ -741,7 +740,7 @@
     <t>Who has the condition? 誰がこの状態を有するか</t>
   </si>
   <si>
-    <t>Indicates the patient or group who the condition record is associated with.</t>
+    <t>「その病状記録が関連する患者またはグループを示します。」</t>
   </si>
   <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
@@ -773,7 +772,7 @@
 この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. This record indicates the encounter this particular record is associated with.  In the case of a "new" diagnosis reflecting ongoing/revised information about the condition, this might be distinct from the first encounter in which the underlying condition was first "known".</t>
+    <t>通常、イベントが発生した出会いの中で行われることが多いですが、公式的に出会いが完了する前または後に開始される場合がありますが、それでも出会いの文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初の出会いとは異なる場合があります。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -824,10 +823,10 @@
     <t>When in resolution/remission. この状態はいつ治癒／寛解／軽快したか</t>
   </si>
   <si>
-    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
-  </si>
-  <si>
-    <t>There is no explicit distinction between resolution and remission because in many cases the distinction is not clear. Age is generally used when the patient reports an age at which the Condition abated.  If there is no abatement element, it is unknown whether the condition has resolved or entered remission; applications and users should generally assume that the condition is still valid.  When abatementString exists, it implies the condition is abated.</t>
+    <t>その状態が解消された日付または予想日。これは、「寛解」と呼ばれます。「寛解」または「解決」と関連付けられた多くの意味のオーバーロードのため、「寛解」と呼ばれます。状態は実際には解決されることはありませんが、緩和することができます。</t>
+  </si>
+  <si>
+    <t>「解決」と「寛解」の間に明確な区別はないため、多くの場合、区別が明確ではありません。患者が症状が収まった年齢を報告した場合、年齢が一般的に使用されます。解消要素がない場合、状態が解決したのか、寛解に入ったのかはわかりません。アプリケーションやユーザーは、一般的に条件が有効であると仮定する必要があります。解消文字列が存在する場合、条件が収束したことを意味します。」</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -920,8 +919,8 @@
 病状の臨床病期またはグレード。正式な重症度評価を含む場合がある。</t>
   </si>
   <si>
-    <t>con-1:Stage SHALL have summary or assessment {summary.exists() or assessment.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>con-1:ステージには要約または評価が必要です。 {summary.exists() or assessment.exists()}
+ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="stage/grade"]</t>
@@ -934,10 +933,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -949,7 +948,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -962,11 +961,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -975,13 +974,13 @@
     <t>Condition.stage.summary</t>
   </si>
   <si>
-    <t>Simple summary (disease specific)</t>
-  </si>
-  <si>
-    <t>A simple summary of the stage such as "Stage 3". The determination of the stage is disease-specific.</t>
-  </si>
-  <si>
-    <t>Codes describing condition stages (e.g. Cancer stages).</t>
+    <t>簡単な要約（病気特有のもの）</t>
+  </si>
+  <si>
+    <t>「ステージ3」といった、単純なステージの概要。ステージの決定は病気によって異なります。」</t>
+  </si>
+  <si>
+    <t>「状態段階を説明するコード（例：がんの段階）」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
@@ -1001,10 +1000,10 @@
 </t>
   </si>
   <si>
-    <t>Formal record of assessment</t>
-  </si>
-  <si>
-    <t>Reference to a formal record of the evidence on which the staging assessment is based.</t>
+    <t>「評価の公式記録」(Hyōka no kōshiki kiroku)</t>
+  </si>
+  <si>
+    <t>「ステージング評価の根拠となる正式な証拠記録への参照。」</t>
   </si>
   <si>
     <t>.self</t>
@@ -1013,13 +1012,13 @@
     <t>Condition.stage.type</t>
   </si>
   <si>
-    <t>Kind of staging</t>
-  </si>
-  <si>
-    <t>The kind of staging, such as pathological or clinical staging.</t>
-  </si>
-  <si>
-    <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
+    <t>"演出の種類" (Enshutsu no shurui)</t>
+  </si>
+  <si>
+    <t>「病理的ステージングや臨床ステージングといった種類のステージング」</t>
+  </si>
+  <si>
+    <t>状態分類を表すコード（例：臨床的または病理学的）。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage-type</t>
@@ -1038,11 +1037,11 @@
 患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
   </si>
   <si>
-    <t>The evidence may be a simple list of coded symptoms/manifestations, or references to observations or formal assessments, or both.</t>
-  </si>
-  <si>
-    <t>con-2:evidence SHALL have code or details {code.exists() or detail.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>「証拠は、コード化された症状/症状の簡単なリスト、または観察や正式な評価への言及、またはその両方である可能性があります。」</t>
+  </si>
+  <si>
+    <t>con-2:証拠にはコードまたは詳細が必要です。 {code.exists() or detail.exists()}
+ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=SPRT].target[classCode=OBS, moodCode=EVN]</t>
@@ -1060,13 +1059,13 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t>Manifestation/symptom</t>
-  </si>
-  <si>
-    <t>A manifestation or symptom that led to the recording of this condition.</t>
-  </si>
-  <si>
-    <t>Codes that describe the manifestation or symptoms of a condition.</t>
+    <t>表れ/症状</t>
+  </si>
+  <si>
+    <t>「この状態の記録に至った兆候や症状。」</t>
+  </si>
+  <si>
+    <t>症状や現れ方を記述するコード。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
@@ -1092,10 +1091,10 @@
 </t>
   </si>
   <si>
-    <t>Supporting information found elsewhere</t>
-  </si>
-  <si>
-    <t>Links to other relevant information, including pathology reports.</t>
+    <t>「別の場所で見つかったサポート情報」</t>
+  </si>
+  <si>
+    <t>その他関連情報、病理検査報告書などのリンク。</t>
   </si>
   <si>
     <t>Condition.note</t>
@@ -1458,7 +1457,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.23828125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="305">
   <si>
     <t>Property</t>
   </si>
@@ -127,132 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t/>
@@ -1239,10 +1113,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1424,7 +1298,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1435,13 +1309,11 @@
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1449,4577 +1321,4450 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="11.54296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>79</v>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>181</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>224</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>242</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>284</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>280</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>319</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>323</v>
+        <v>249</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>287</v>
+        <v>95</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>255</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>330</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>269</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="347">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t/>
@@ -1113,10 +1239,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1298,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP37"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1309,11 +1435,13 @@
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1321,4450 +1449,4577 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="39.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="11.54296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>177</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>214</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>38</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>280</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>287</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>92</v>
+        <v>291</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>292</v>
+        <v>134</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
+  </si>
+  <si>
+    <t>con-3:「verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。」 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:「verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。」 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1446,19 +1450,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -1469,10 +1473,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1483,7 +1487,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1492,19 +1496,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1554,13 +1558,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1589,10 +1593,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1603,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1612,16 +1616,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1672,19 +1676,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1707,10 +1711,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1721,28 +1725,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1792,19 +1796,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1827,10 +1831,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1841,7 +1845,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1853,16 +1857,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1888,13 +1892,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -1912,19 +1916,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1947,21 +1951,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1973,16 +1977,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2032,19 +2036,19 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -2056,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>38</v>
@@ -2067,14 +2071,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2093,16 +2097,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2152,7 +2156,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2176,7 +2180,7 @@
         <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>38</v>
@@ -2187,14 +2191,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2213,16 +2217,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2272,7 +2276,7 @@
         <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2284,7 +2288,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2296,7 +2300,7 @@
         <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>38</v>
@@ -2307,14 +2311,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2327,25 +2331,25 @@
         <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>38</v>
@@ -2394,7 +2398,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2406,7 +2410,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2418,7 +2422,7 @@
         <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>38</v>
@@ -2429,10 +2433,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2452,22 +2456,22 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>38</v>
@@ -2516,7 +2520,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2528,10 +2532,10 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>38</v>
@@ -2540,10 +2544,10 @@
         <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>38</v>
@@ -2551,10 +2555,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2565,28 +2569,28 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2612,13 +2616,13 @@
         <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>38</v>
@@ -2636,34 +2640,34 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>38</v>
@@ -2671,10 +2675,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2685,28 +2689,28 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2732,13 +2736,13 @@
         <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>38</v>
@@ -2756,45 +2760,45 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AP12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2817,16 +2821,16 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2852,13 +2856,13 @@
         <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>38</v>
@@ -2876,7 +2880,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -2888,22 +2892,22 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>38</v>
@@ -2911,10 +2915,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2925,7 +2929,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2937,16 +2941,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2972,11 +2976,11 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>38</v>
@@ -2994,56 +2998,56 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3052,20 +3056,20 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3090,13 +3094,13 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>38</v>
@@ -3114,45 +3118,45 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3172,19 +3176,19 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3210,13 +3214,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3234,7 +3238,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3246,44 +3250,44 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3292,20 +3296,20 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3354,34 +3358,34 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>38</v>
@@ -3389,10 +3393,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3403,7 +3407,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3412,19 +3416,19 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3474,34 +3478,34 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>38</v>
@@ -3509,10 +3513,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3523,7 +3527,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3532,19 +3536,19 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3594,34 +3598,34 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -3629,10 +3633,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3643,7 +3647,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3655,16 +3659,16 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3714,19 +3718,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3738,10 +3742,10 @@
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -3749,10 +3753,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3763,7 +3767,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -3772,16 +3776,16 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3832,19 +3836,19 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
@@ -3853,13 +3857,13 @@
         <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -3867,10 +3871,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3881,7 +3885,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -3890,16 +3894,16 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3950,19 +3954,19 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3974,10 +3978,10 @@
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -3985,10 +3989,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3999,7 +4003,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4008,16 +4012,16 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4068,19 +4072,19 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -4089,13 +4093,13 @@
         <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>38</v>
@@ -4103,10 +4107,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4129,13 +4133,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4186,7 +4190,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4198,7 +4202,7 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
@@ -4210,7 +4214,7 @@
         <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>38</v>
@@ -4221,10 +4225,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4235,7 +4239,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4247,13 +4251,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4304,13 +4308,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -4328,7 +4332,7 @@
         <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>38</v>
@@ -4339,14 +4343,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4365,16 +4369,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4424,7 +4428,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4436,7 +4440,7 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
@@ -4448,7 +4452,7 @@
         <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>38</v>
@@ -4459,14 +4463,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4479,25 +4483,25 @@
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4546,7 +4550,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4558,7 +4562,7 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
@@ -4570,7 +4574,7 @@
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4581,10 +4585,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4595,7 +4599,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4607,13 +4611,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4640,13 +4644,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -4664,31 +4668,31 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -4699,10 +4703,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4725,13 +4729,13 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4782,7 +4786,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4791,10 +4795,10 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
@@ -4806,7 +4810,7 @@
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -4817,10 +4821,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4831,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -4843,13 +4847,13 @@
         <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4876,13 +4880,13 @@
         <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>38</v>
@@ -4900,19 +4904,19 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
@@ -4924,7 +4928,7 @@
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -4935,10 +4939,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4961,16 +4965,16 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5020,7 +5024,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5032,7 +5036,7 @@
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
@@ -5044,7 +5048,7 @@
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5055,10 +5059,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5069,7 +5073,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5081,13 +5085,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5138,13 +5142,13 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
@@ -5162,7 +5166,7 @@
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5173,14 +5177,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5199,16 +5203,16 @@
         <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5258,7 +5262,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5270,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5282,7 +5286,7 @@
         <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>38</v>
@@ -5293,14 +5297,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5313,25 +5317,25 @@
         <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5380,7 +5384,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5392,7 +5396,7 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>38</v>
@@ -5404,7 +5408,7 @@
         <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -5415,10 +5419,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5438,16 +5442,16 @@
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5474,13 +5478,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5498,7 +5502,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5507,25 +5511,25 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -5533,10 +5537,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5556,16 +5560,16 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5616,7 +5620,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5625,10 +5629,10 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>38</v>
@@ -5640,10 +5644,10 @@
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>38</v>
@@ -5651,10 +5655,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5677,13 +5681,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5734,7 +5738,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5746,19 +5750,19 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -650,7 +650,7 @@
 この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>通常、イベントが発生した出会いの中で行われることが多いですが、公式的に出会いが完了する前または後に開始される場合がありますが、それでも出会いの文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初の出会いとは異なる場合があります。</t>
+    <t>通常、イベントが発生したEncounter（診察、受診、入退院など）の中で行われることが多いですが、公式的にEncounter（診察、受診、入退院など）が完了する前または後に開始される場合がありますが、それでもEncounter（診察、受診、入退院など）の文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初のEncounter（診察、受診、入退院など）とは異なる場合があります。</t>
   </si>
   <si>
     <t>Event.context</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -149,8 +149,8 @@
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
   </si>
   <si>
-    <t>con-3:「verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。」 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:「verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。」 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+    <t>con-3:verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -181,10 +181,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -197,7 +197,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -220,7 +220,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -239,7 +239,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -271,7 +271,7 @@
     <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -297,10 +297,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -323,7 +323,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -333,7 +333,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -342,7 +342,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -439,7 +439,7 @@
 データ型はCodeableConceptであり、検証状態には臨床的な判断が必要なため、必要なFHIR値のセットよりも詳細な仕様が必要になる場合があります。例えば、SNOMEDのコーディングではさらに詳細な情報を含むことができます。</t>
   </si>
   <si>
-    <t>「状態や診断の臨床状況を支持または拒否するための検証状況」</t>
+    <t>状態や診断の臨床状況を支持または拒否するための検証状況</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
@@ -468,7 +468,7 @@
     <t>problem-list-item | encounter-diagnosis（プロブレムリスト | 一時的な診断）</t>
   </si>
   <si>
-    <t>「状態に割り当てられたカテゴリー。」</t>
+    <t>状態に割り当てられたカテゴリー。</t>
   </si>
   <si>
     <t>分類はしばしば文脈に強く依存しており、他の文脈では区別が不十分であるか、あまり役に立たないように見えることがあります。</t>
@@ -544,7 +544,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>「状態や診断の特定」(Joutai ya shindan no tokutei)</t>
+    <t>状態や診断の特定</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -586,7 +586,7 @@
     <t>この症状が現れる解剖学的位置。</t>
   </si>
   <si>
-    <t>「Condition.code」で暗黙的に表現されない場合にのみ使用します。ユースケースがBodySiteリソースから属性を必要とする場合（例えば、別々に識別して追跡するために）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用してください。概要コードであることも、位置の非常に正確な定義への参照であることもあります。」</t>
+    <t>Condition.code」で暗黙的に表現されない場合にのみ使用します。ユースケースがBodySiteリソースから属性を必要とする場合（例えば、別々に識別して追跡するために）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用してください。概要コードであることも、位置の非常に正確な定義への参照であることもあります。</t>
   </si>
   <si>
     <t>解剖学的位置を記述するコード。左右対称性を含む場合があります。</t>
@@ -618,7 +618,7 @@
     <t>Who has the condition? 誰がこの状態を有するか</t>
   </si>
   <si>
-    <t>「その病状記録が関連する患者またはグループを示します。」</t>
+    <t>その病状記録が関連する患者またはグループを示します。</t>
   </si>
   <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
@@ -704,7 +704,7 @@
     <t>その状態が解消された日付または予想日。これは、「寛解」と呼ばれます。「寛解」または「解決」と関連付けられた多くの意味のオーバーロードのため、「寛解」と呼ばれます。状態は実際には解決されることはありませんが、緩和することができます。</t>
   </si>
   <si>
-    <t>「解決」と「寛解」の間に明確な区別はないため、多くの場合、区別が明確ではありません。患者が症状が収まった年齢を報告した場合、年齢が一般的に使用されます。解消要素がない場合、状態が解決したのか、寛解に入ったのかはわかりません。アプリケーションやユーザーは、一般的に条件が有効であると仮定する必要があります。解消文字列が存在する場合、条件が収束したことを意味します。」</t>
+    <t>解決」と「寛解」の間に明確な区別はないため、多くの場合、区別が明確ではありません。患者が症状が収まった年齢を報告した場合、年齢が一般的に使用されます。解消要素がない場合、状態が解決したのか、寛解に入ったのかはわかりません。アプリケーションやユーザーは、一般的に条件が有効であると仮定する必要があります。解消文字列が存在する場合、条件が収束したことを意味します。</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -826,7 +826,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -839,11 +839,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -855,10 +855,10 @@
     <t>簡単な要約（病気特有のもの）</t>
   </si>
   <si>
-    <t>「ステージ3」といった、単純なステージの概要。ステージの決定は病気によって異なります。」</t>
-  </si>
-  <si>
-    <t>「状態段階を説明するコード（例：がんの段階）」</t>
+    <t>ステージ3」といった、単純なステージの概要。ステージの決定は病気によって異なります。</t>
+  </si>
+  <si>
+    <t>状態段階を説明するコード（例：がんの段階）</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
@@ -881,7 +881,7 @@
     <t>「評価の公式記録」(Hyōka no kōshiki kiroku)</t>
   </si>
   <si>
-    <t>「ステージング評価の根拠となる正式な証拠記録への参照。」</t>
+    <t>ステージング評価の根拠となる正式な証拠記録への参照。</t>
   </si>
   <si>
     <t>.self</t>
@@ -893,7 +893,7 @@
     <t>"演出の種類" (Enshutsu no shurui)</t>
   </si>
   <si>
-    <t>「病理的ステージングや臨床ステージングといった種類のステージング」</t>
+    <t>病理的ステージングや臨床ステージングといった種類のステージング</t>
   </si>
   <si>
     <t>状態分類を表すコード（例：臨床的または病理学的）。</t>
@@ -915,7 +915,7 @@
 患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
   </si>
   <si>
-    <t>「証拠は、コード化された症状/症状の簡単なリスト、または観察や正式な評価への言及、またはその両方である可能性があります。」</t>
+    <t>証拠は、コード化された症状/症状の簡単なリスト、または観察や正式な評価への言及、またはその両方である可能性があります。</t>
   </si>
   <si>
     <t>con-2:証拠にはコードまたは詳細が必要です。 {code.exists() or detail.exists()}
@@ -940,7 +940,7 @@
     <t>表れ/症状</t>
   </si>
   <si>
-    <t>「この状態の記録に至った兆候や症状。」</t>
+    <t>この状態の記録に至った兆候や症状。</t>
   </si>
   <si>
     <t>症状や現れ方を記述するコード。</t>
@@ -969,7 +969,7 @@
 </t>
   </si>
   <si>
-    <t>「別の場所で見つかったサポート情報」</t>
+    <t>別の場所で見つかったサポート情報</t>
   </si>
   <si>
     <t>その他関連情報、病理検査報告書などのリンク。</t>
@@ -1332,7 +1332,7 @@
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -145,7 +145,7 @@
     <t>Detailed information about conditions, problems or diagnoses. 患者の臨床状態、問題、または診断に関する詳細な情報</t>
   </si>
   <si>
-    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.
+    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.  
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
   </si>
   <si>
@@ -389,7 +389,7 @@
     <t>active | recurrence | relapse | inactive | remission | resolved （アクティブ | 再発 | 再燃 | インアクティブ | 寛解 | 完治）</t>
   </si>
   <si>
-    <t>The clinical status of the condition.
+    <t>The clinical status of the condition.  
 この患者状態の臨床的ステータス（アクティブか否かなど）</t>
   </si>
   <si>
@@ -431,7 +431,7 @@
     <t>unconfirmed | provisional | differential | confirmed | refuted | entered-in-error（十分に確認されていない | 暫定的 | 鑑別的 | 十分な根拠で存在 | 十分な根拠で否定 | 誤記載）</t>
   </si>
   <si>
-    <t>The verification status to support the clinical status of the condition.
+    <t>The verification status to support the clinical status of the condition.  
  この患者状態が存在するかどうかの検証状況。</t>
   </si>
   <si>
@@ -498,13 +498,13 @@
     <t>Subjective severity of condition. この患者状態の重症度。このプロファイルは、HL70421 Severity of Illness Codeで表現</t>
   </si>
   <si>
-    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.  
 医療者によって評価されたこの患者状態の重症度。</t>
   </si>
   <si>
-    <t>Coding of the severity with a terminology is preferred, where possible.
-可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。
- このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
+    <t>Coding of the severity with a terminology is preferred, where possible.  
+可能な限り、ターミノロジを用いて重症度をコーディングすることが好ましい。  
+このプロファイルではHL70421 Severity of Illness Code（MI 軽度, MO 中度, SE 重度）を採用。</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ConditionSeverity_VS</t>
@@ -646,7 +646,7 @@
     <t>Encounter created as part of. この患者状態の記録が作成された受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.
+    <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.  
 この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
@@ -675,11 +675,11 @@
     <t>Estimated or actual date,  date-time, or age. この患者状態のオンセット。推定もしくは実際の日付、日時、年齢</t>
   </si>
   <si>
-    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.
+    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.  
 臨床医の判断における、本状態が始まったと推定される、または実際に始まった日または日時。</t>
   </si>
   <si>
-    <t>Age is generally used when the patient reports an age at which the Condition began to occur.
+    <t>Age is generally used when the patient reports an age at which the Condition began to occur.  
 年齢は一般的に、患者が症状が発生し始めた年齢を報告したケースで使用される。</t>
   </si>
   <si>
@@ -727,7 +727,7 @@
     <t>Date record was first recorded. この患者状態が初めて記録された日時</t>
   </si>
   <si>
-    <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.
+    <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.  
 この患者状態の記録がシステムで作成された日時を表し、多くの場合、システムが生成した日付である。</t>
   </si>
   <si>
@@ -750,7 +750,7 @@
     <t>Who recorded the condition. 誰がこの患者状態を記録したか</t>
   </si>
   <si>
-    <t>Individual who recorded the record and takes responsibility for its content.
+    <t>Individual who recorded the record and takes responsibility for its content.  
 この患者状態を記録しその内容に責任を持つ個人。</t>
   </si>
   <si>
@@ -770,7 +770,7 @@
     <t>Person who asserts this condition. この患者状態の情報源</t>
   </si>
   <si>
-    <t>Individual who is making the condition statement.
+    <t>Individual who is making the condition statement.  
 この患者状態に関する情報の発生源または取得元。</t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>Stage/grade, usually assessed formally. この患者状態のステージやグレード。通常は正式に評価されたもの</t>
   </si>
   <si>
-    <t>Clinical stage or grade of a condition. May include formal severity assessments.
+    <t>Clinical stage or grade of a condition. May include formal severity assessments.  
 病状の臨床病期またはグレード。正式な重症度評価を含む場合がある。</t>
   </si>
   <si>
@@ -911,7 +911,7 @@
     <t>Supporting evidence. 患者状態の存在に関する根拠</t>
   </si>
   <si>
-    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.
+    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.  
 患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
   </si>
   <si>
@@ -985,7 +985,7 @@
     <t>Additional information about the Condition. この患者状態に関する追加情報</t>
   </si>
   <si>
-    <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.
+    <t>Additional information about the Condition. This is a general notes/comments entry for description of the Condition, its diagnosis and prognosis.  
 この患者状態に関する追加情報。これは、状態の説明、診断、予後に関するメモやコメントである。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Concept Domain Binding</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t/>
@@ -1302,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP37"/>
+  <dimension ref="A1:AP38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1313,11 +1439,13 @@
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1325,4450 +1453,4577 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="11.54296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AN1" t="s" s="2">
+      <c r="K1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="AO1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>38</v>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>144</v>
+        <v>175</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>38</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>227</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>243</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>38</v>
+        <v>280</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>38</v>
+        <v>316</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>247</v>
+        <v>320</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>250</v>
+        <v>324</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -127,132 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Concept Domain Binding</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: SNOMED CT Attribute Binding</t>
   </si>
   <si>
     <t/>
@@ -1428,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1439,13 +1313,11 @@
   <cols>
     <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.88671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="185.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1453,4577 +1325,4450 @@
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="19.62890625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="68.20703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="222.1015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="11.54296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="AN1" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>77</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>78</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>79</v>
+      <c r="AO1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>55</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>225</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>251</v>
+        <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>280</v>
+        <v>38</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>159</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>214</v>
+        <v>270</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>316</v>
+        <v>38</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>96</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>137</v>
+        <v>255</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>139</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="P34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>292</v>
+        <v>93</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>292</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>330</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>334</v>
+        <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>270</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>299</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>336</v>
+        <v>38</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -236,7 +236,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -248,7 +248,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -294,7 +294,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -878,7 +878,7 @@
 </t>
   </si>
   <si>
-    <t>「評価の公式記録」(Hyōka no kōshiki kiroku)</t>
+    <t>「評価の公式記録」</t>
   </si>
   <si>
     <t>ステージング評価の根拠となる正式な証拠記録への参照。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-condition.xlsx
@@ -275,8 +275,8 @@
 健康上の懸念となるレベルに達した、身体的、精神的、社会的な負の状態(condition)や問題（problem／issue）、医療者による診断(diagnosis)、生じたイベント(event)、置かれている状況(situation)、臨床的概念(clinical concept)。</t>
   </si>
   <si>
-    <t>con-3:verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
-con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+    <t>con-3:「verificationStatus」が「entered-in-error」でなく、「category」が「problem-list-item」である場合、「condition.clinicalStatus」が存在している必要があります。」 {clinicalStatus.exists() or verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code = 'entered-in-error').exists() or category.select($this='problem-list-item').empty()}
+con-4:もし状態が軽減された場合、臨床状態は不活動、解決、または寛解でなければなりません。 {abatement.empty() or clinicalStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-clinical' and (code='resolved' or code='remission' or code='inactive')).exists()}con-5:「verificationStatusがentered-in-errorである場合、condition.clinicalStatusは存在してはなりません。」 {verificationStatus.coding.where(system='http://terminology.hl7.org/CodeSystem/condition-ver-status' and code='entered-in-error').empty() or clinicalStatus.empty()}dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -307,10 +307,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -323,7 +323,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -346,7 +346,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -362,10 +362,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -374,7 +374,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -397,7 +397,7 @@
     <t>Text summary of the resource, for human interpretation. このリソースを人間が解釈するためのテキスト要約</t>
   </si>
   <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -420,13 +420,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -449,7 +449,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります</t>
+    <t>「リソースの基本的な定義の一部ではない追加情報を表すために使用することができます。拡張機能の使用を安全かつ管理可能にするために、定義と使用の一定のガバナンスが適用されます。実装者はどんな拡張機能でも定義できますが、拡張機能の定義の一部として満たす必要がある要件があります」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -459,7 +459,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -468,7 +468,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -565,7 +565,7 @@
 データ型はCodeableConceptであり、検証状態には臨床的な判断が必要なため、必要なFHIR値のセットよりも詳細な仕様が必要になる場合があります。例えば、SNOMEDのコーディングではさらに詳細な情報を含むことができます。</t>
   </si>
   <si>
-    <t>状態や診断の臨床状況を支持または拒否するための検証状況</t>
+    <t>「状態や診断の臨床状況を支持または拒否するための検証状況」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-ver-status|4.0.1</t>
@@ -594,7 +594,7 @@
     <t>problem-list-item | encounter-diagnosis（プロブレムリスト | 一時的な診断）</t>
   </si>
   <si>
-    <t>状態に割り当てられたカテゴリー。</t>
+    <t>「状態に割り当てられたカテゴリー。」</t>
   </si>
   <si>
     <t>分類はしばしば文脈に強く依存しており、他の文脈では区別が不十分であるか、あまり役に立たないように見えることがあります。</t>
@@ -670,7 +670,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>状態や診断の特定</t>
+    <t>「状態や診断の特定」(Joutai ya shindan no tokutei)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
@@ -712,7 +712,7 @@
     <t>この症状が現れる解剖学的位置。</t>
   </si>
   <si>
-    <t>Condition.code」で暗黙的に表現されない場合にのみ使用します。ユースケースがBodySiteリソースから属性を必要とする場合（例えば、別々に識別して追跡するために）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用してください。概要コードであることも、位置の非常に正確な定義への参照であることもあります。</t>
+    <t>「Condition.code」で暗黙的に表現されない場合にのみ使用します。ユースケースがBodySiteリソースから属性を必要とする場合（例えば、別々に識別して追跡するために）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用してください。概要コードであることも、位置の非常に正確な定義への参照であることもあります。」</t>
   </si>
   <si>
     <t>解剖学的位置を記述するコード。左右対称性を含む場合があります。</t>
@@ -744,7 +744,7 @@
     <t>Who has the condition? 誰がこの状態を有するか</t>
   </si>
   <si>
-    <t>その病状記録が関連する患者またはグループを示します。</t>
+    <t>「その病状記録が関連する患者またはグループを示します。」</t>
   </si>
   <si>
     <t>Group is typically used for veterinary or public health use cases.</t>
@@ -776,7 +776,7 @@
 この患者状態の記録やレコード作成に関連する受療の状況（外来、入院、救急、在宅など）</t>
   </si>
   <si>
-    <t>通常、イベントが発生したEncounter（診察、受診、入退院など）の中で行われることが多いですが、公式的にEncounter（診察、受診、入退院など）が完了する前または後に開始される場合がありますが、それでもEncounter（診察、受診、入退院など）の文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初のEncounter（診察、受診、入退院など）とは異なる場合があります。</t>
+    <t>通常、イベントが発生した出会いの中で行われることが多いですが、公式的に出会いが完了する前または後に開始される場合がありますが、それでも出会いの文脈に関連する活動があります。この記録は、この特定の記録が関連付けられた出来事を示します。 「新しい」診断が、継続的に修正された情報を反映する場合、これは最初に患者が変化に気づいた最初の出会いとは異なる場合があります。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -830,7 +830,7 @@
     <t>その状態が解消された日付または予想日。これは、「寛解」と呼ばれます。「寛解」または「解決」と関連付けられた多くの意味のオーバーロードのため、「寛解」と呼ばれます。状態は実際には解決されることはありませんが、緩和することができます。</t>
   </si>
   <si>
-    <t>解決」と「寛解」の間に明確な区別はないため、多くの場合、区別が明確ではありません。患者が症状が収まった年齢を報告した場合、年齢が一般的に使用されます。解消要素がない場合、状態が解決したのか、寛解に入ったのかはわかりません。アプリケーションやユーザーは、一般的に条件が有効であると仮定する必要があります。解消文字列が存在する場合、条件が収束したことを意味します。</t>
+    <t>「解決」と「寛解」の間に明確な区別はないため、多くの場合、区別が明確ではありません。患者が症状が収まった年齢を報告した場合、年齢が一般的に使用されます。解消要素がない場合、状態が解決したのか、寛解に入ったのかはわかりません。アプリケーションやユーザーは、一般的に条件が有効であると仮定する必要があります。解消文字列が存在する場合、条件が収束したことを意味します。」</t>
   </si>
   <si>
     <t xml:space="preserve">con-4
@@ -952,7 +952,7 @@
     <t>Condition.stage.extension</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -965,11 +965,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -981,10 +981,10 @@
     <t>簡単な要約（病気特有のもの）</t>
   </si>
   <si>
-    <t>ステージ3」といった、単純なステージの概要。ステージの決定は病気によって異なります。</t>
-  </si>
-  <si>
-    <t>状態段階を説明するコード（例：がんの段階）</t>
+    <t>「ステージ3」といった、単純なステージの概要。ステージの決定は病気によって異なります。」</t>
+  </si>
+  <si>
+    <t>「状態段階を説明するコード（例：がんの段階）」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/condition-stage</t>
@@ -1004,10 +1004,10 @@
 </t>
   </si>
   <si>
-    <t>「評価の公式記録」</t>
-  </si>
-  <si>
-    <t>ステージング評価の根拠となる正式な証拠記録への参照。</t>
+    <t>「評価の公式記録」(Hyōka no kōshiki kiroku)</t>
+  </si>
+  <si>
+    <t>「ステージング評価の根拠となる正式な証拠記録への参照。」</t>
   </si>
   <si>
     <t>.self</t>
@@ -1019,7 +1019,7 @@
     <t>"演出の種類" (Enshutsu no shurui)</t>
   </si>
   <si>
-    <t>病理的ステージングや臨床ステージングといった種類のステージング</t>
+    <t>「病理的ステージングや臨床ステージングといった種類のステージング」</t>
   </si>
   <si>
     <t>状態分類を表すコード（例：臨床的または病理学的）。</t>
@@ -1041,7 +1041,7 @@
 患者状態を確認または否定した証拠など、状態の検証ステータスの裏付けとなる症状や兆候。</t>
   </si>
   <si>
-    <t>証拠は、コード化された症状/症状の簡単なリスト、または観察や正式な評価への言及、またはその両方である可能性があります。</t>
+    <t>「証拠は、コード化された症状/症状の簡単なリスト、または観察や正式な評価への言及、またはその両方である可能性があります。」</t>
   </si>
   <si>
     <t>con-2:証拠にはコードまたは詳細が必要です。 {code.exists() or detail.exists()}
@@ -1066,7 +1066,7 @@
     <t>表れ/症状</t>
   </si>
   <si>
-    <t>この状態の記録に至った兆候や症状。</t>
+    <t>「この状態の記録に至った兆候や症状。」</t>
   </si>
   <si>
     <t>症状や現れ方を記述するコード。</t>
@@ -1095,7 +1095,7 @@
 </t>
   </si>
   <si>
-    <t>別の場所で見つかったサポート情報</t>
+    <t>「別の場所で見つかったサポート情報」</t>
   </si>
   <si>
     <t>その他関連情報、病理検査報告書などのリンク。</t>
@@ -1461,7 +1461,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="35.1484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="39.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="53.6171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
